--- a/excel/shuwa_exam_question_list_ver0.03.xlsx
+++ b/excel/shuwa_exam_question_list_ver0.03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\マイドライブ\かつおーず\011_Creation\WebSite\shuwa_exam_site\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0059221C-5F3A-4DBA-AFA7-B4212A6AC3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B098AB10-530C-43EC-B325-FF7872A31A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="2715" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shuwa" sheetId="2" r:id="rId1"/>
@@ -6620,38 +6620,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>この旅の方法は何が不要だと言っていますか？</t>
-    <rPh sb="2" eb="3">
-      <t>タビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>フヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1. 観光パンフレット
-2. ツアーガイド
-3. パスポート
-4. 交通費</t>
-    <rPh sb="3" eb="5">
-      <t>カンコウ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>コウツウヒ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1. ソウル
 2. ハワイ
 3. ベトナム
@@ -7587,73 +7555,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>私は旅が大好きです。私の旅の方法は図書館に行って本を読んで旅をイメージします。例えば、江戸時代のお店に行って団子を食べたり、イタリアに行って教会でお祈りしました。宇宙にもいけます。パスポートもいらないんですよね。こんな旅もいいですよね。明日は、フィンランドへ旅したいと思っています。</t>
-    <rPh sb="0" eb="2">
-      <t>ウァ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タビ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ff</t>
-    </rPh>
-    <rPh sb="10" eb="16">
-      <t>wノタビノホウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>トショカン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="24" eb="39">
-      <t>ホンヲヨンデタビヲイメ;シm;</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>エドジダイ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ミセ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ダンゴ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>キョウカイ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>イノ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ウチュウ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>タビ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>アシタ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>タビ</t>
-    </rPh>
-    <rPh sb="134" eb="135">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>国会をテレビで見て、総理大臣をはじめ、各大臣が答弁するのを見て、すごいな、と感心していたら実際は違いました。答弁は官僚が作っていてそれを読んでいる、と聞いてがっかりしました。国民の税金で給与を得ている国会議員には真剣に景気回復、子ども政策の充実について考えて議論してほしいし、私は1日も早い手話言語法の実現を祈っています。</t>
     <rPh sb="0" eb="2">
       <t>コッカイ</t>
@@ -8424,6 +8325,105 @@
   </si>
   <si>
     <t>cwhIIiWeTUE</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>私は旅が大好きです。私の旅の方法は図書館に行って本を読んで旅をイメージします。例えば、江戸時代の城下町に行って団子を食べたり、イタリアに行って教会でお祈りしました。宇宙にもいけます。こんな旅もいいですよね。明日は、フィンランドへ旅したいと思っています。</t>
+    <rPh sb="0" eb="2">
+      <t>ウァ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ff</t>
+    </rPh>
+    <rPh sb="10" eb="16">
+      <t>wノタビノホウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>トショカン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="39">
+      <t>ホンヲヨンデタビヲイメ;シm;</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>エドジダイ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ジョウカマチ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ダンゴ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>イノ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ウチュウ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>アシタ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>江戸時代、宇宙のほかに言った場所はどこですか？</t>
+    <rPh sb="0" eb="4">
+      <t>エドジダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウチュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. イギリス
+2. イタリア
+3. 研究所
+4. 地下世界</t>
+    <rPh sb="19" eb="22">
+      <t>ケンキュウジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セカイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -8841,9 +8841,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8890,7 +8890,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" ht="18.75" hidden="1">
@@ -11077,10 +11077,10 @@
         <v>2</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="63" hidden="1">
@@ -11111,10 +11111,10 @@
         <v>3</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="63" hidden="1">
@@ -11145,10 +11145,10 @@
         <v>3</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="63" hidden="1">
@@ -11179,13 +11179,13 @@
         <v>1</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="63">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="63" hidden="1">
       <c r="A83" s="7">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -11213,13 +11213,13 @@
         <v>3</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="63">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="63" hidden="1">
       <c r="A84" s="7">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -11247,13 +11247,13 @@
         <v>2</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="63">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="63" hidden="1">
       <c r="A85" s="7">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -11281,13 +11281,13 @@
         <v>4</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="63">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="63" hidden="1">
       <c r="A86" s="7">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -11315,13 +11315,13 @@
         <v>2</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="63">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="63" hidden="1">
       <c r="A87" s="7">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -11349,13 +11349,13 @@
         <v>1</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="63">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="63" hidden="1">
       <c r="A88" s="7">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -11377,16 +11377,16 @@
         <v>302</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H88" s="7">
         <v>1</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="63" hidden="1">
@@ -11417,10 +11417,10 @@
         <v>1</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="63" hidden="1">
@@ -11451,10 +11451,10 @@
         <v>2</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="63" hidden="1">
@@ -11485,10 +11485,10 @@
         <v>3</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="63" hidden="1">
@@ -11519,10 +11519,10 @@
         <v>4</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="63" hidden="1">
@@ -11553,13 +11553,13 @@
         <v>2</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="63">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="63" hidden="1">
       <c r="A94" s="7">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -11587,13 +11587,13 @@
         <v>1</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="63">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="63" hidden="1">
       <c r="A95" s="7">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -11621,13 +11621,13 @@
         <v>1</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="63">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="63" hidden="1">
       <c r="A96" s="7">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -11655,13 +11655,13 @@
         <v>2</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="63">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="63" hidden="1">
       <c r="A97" s="7">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -11689,13 +11689,13 @@
         <v>4</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="63">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="63" hidden="1">
       <c r="A98" s="7">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -11723,10 +11723,10 @@
         <v>1</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="63" hidden="1">
@@ -11757,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J99" s="4"/>
     </row>
@@ -11789,7 +11789,7 @@
         <v>4</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J100" s="4"/>
     </row>
@@ -11821,7 +11821,7 @@
         <v>2</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J101" s="4"/>
     </row>
@@ -11853,7 +11853,7 @@
         <v>4</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J102" s="4"/>
     </row>
@@ -11885,11 +11885,11 @@
         <v>2</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="1:10" ht="63">
+    <row r="104" spans="1:10" ht="63" hidden="1">
       <c r="A104" s="7">
         <f t="shared" si="2"/>
         <v>103</v>
@@ -11917,13 +11917,13 @@
         <v>3</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="63">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="63" hidden="1">
       <c r="A105" s="7">
         <f t="shared" si="2"/>
         <v>104</v>
@@ -11951,13 +11951,13 @@
         <v>3</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="63">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="63" hidden="1">
       <c r="A106" s="7">
         <f t="shared" si="2"/>
         <v>105</v>
@@ -11985,13 +11985,13 @@
         <v>2</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="63">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="63" hidden="1">
       <c r="A107" s="7">
         <f t="shared" si="2"/>
         <v>106</v>
@@ -12019,13 +12019,13 @@
         <v>3</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="63">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="63" hidden="1">
       <c r="A108" s="7">
         <f t="shared" si="2"/>
         <v>107</v>
@@ -12053,10 +12053,10 @@
         <v>1</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="63" hidden="1">
@@ -12087,7 +12087,7 @@
         <v>2</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J109" s="4"/>
     </row>
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J110" s="4"/>
     </row>
@@ -12151,7 +12151,7 @@
         <v>3</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J111" s="4"/>
     </row>
@@ -12183,7 +12183,7 @@
         <v>4</v>
       </c>
       <c r="I112" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J112" s="4"/>
     </row>
@@ -12215,10 +12215,10 @@
         <v>1</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="63" hidden="1">
@@ -12249,10 +12249,10 @@
         <v>2</v>
       </c>
       <c r="I114" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="63" hidden="1">
@@ -12283,10 +12283,10 @@
         <v>2</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="63" hidden="1">
@@ -12317,10 +12317,10 @@
         <v>1</v>
       </c>
       <c r="I116" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="63" hidden="1">
@@ -12351,10 +12351,10 @@
         <v>3</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J117" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="63" hidden="1">
@@ -12385,10 +12385,10 @@
         <v>4</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="63" hidden="1">
@@ -12419,10 +12419,10 @@
         <v>3</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="63" hidden="1">
@@ -12453,10 +12453,10 @@
         <v>4</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="63" hidden="1">
@@ -12481,16 +12481,16 @@
         <v>359</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H121" s="7">
         <v>3</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J121" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="63" hidden="1">
@@ -12521,7 +12521,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="J122" s="4"/>
     </row>
@@ -12553,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J123" s="4"/>
     </row>
@@ -12585,7 +12585,7 @@
         <v>4</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J124" s="4"/>
     </row>
@@ -12617,11 +12617,11 @@
         <v>4</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" spans="1:10" ht="78.75" hidden="1">
+    <row r="126" spans="1:10" ht="78.75">
       <c r="A126" s="7">
         <f t="shared" si="2"/>
         <v>125</v>
@@ -12649,13 +12649,13 @@
         <v>2</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="78.75" hidden="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="78.75">
       <c r="A127" s="7">
         <f t="shared" si="2"/>
         <v>126</v>
@@ -12683,13 +12683,13 @@
         <v>4</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="78.75" hidden="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="78.75">
       <c r="A128" s="7">
         <f t="shared" si="2"/>
         <v>127</v>
@@ -12717,13 +12717,13 @@
         <v>2</v>
       </c>
       <c r="I128" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="78.75" hidden="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="78.75">
       <c r="A129" s="7">
         <f t="shared" si="2"/>
         <v>128</v>
@@ -12751,13 +12751,13 @@
         <v>3</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J129" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="78.75" hidden="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="78.75">
       <c r="A130" s="7">
         <f t="shared" si="2"/>
         <v>129</v>
@@ -12785,13 +12785,13 @@
         <v>1</v>
       </c>
       <c r="I130" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="78.75" hidden="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="78.75">
       <c r="A131" s="7">
         <f t="shared" si="2"/>
         <v>130</v>
@@ -12819,13 +12819,13 @@
         <v>3</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="63" hidden="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="63">
       <c r="A132" s="7">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -12853,13 +12853,13 @@
         <v>1</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J132" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="63" hidden="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="63">
       <c r="A133" s="7">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -12878,22 +12878,22 @@
         <v>6</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>383</v>
+        <v>484</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>384</v>
+        <v>485</v>
       </c>
       <c r="H133" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J133" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="63" hidden="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="63">
       <c r="A134" s="7">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -12915,16 +12915,16 @@
         <v>375</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H134" s="7">
         <v>4</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="110.25" hidden="1">
@@ -12946,19 +12946,19 @@
         <v>7</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H135" s="7">
         <v>2</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="110.25" hidden="1">
@@ -12980,19 +12980,19 @@
         <v>7</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H136" s="7">
         <v>2</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="110.25" hidden="1">
@@ -13014,19 +13014,19 @@
         <v>7</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H137" s="7">
         <v>3</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J137" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="126" hidden="1">
@@ -13048,19 +13048,19 @@
         <v>8</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H138" s="7">
         <v>1</v>
       </c>
       <c r="I138" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="126" hidden="1">
@@ -13082,19 +13082,19 @@
         <v>8</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H139" s="7">
         <v>4</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="126" hidden="1">
@@ -13116,19 +13116,19 @@
         <v>8</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H140" s="7">
         <v>3</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J140" s="10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="94.5" hidden="1">
@@ -13150,19 +13150,19 @@
         <v>9</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H141" s="7">
         <v>3</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J141" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="94.5" hidden="1">
@@ -13184,19 +13184,19 @@
         <v>9</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H142" s="7">
         <v>2</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J142" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="94.5" hidden="1">
@@ -13218,26 +13218,36 @@
         <v>9</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H143" s="7">
         <v>3</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J143" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J143" xr:uid="{8B6B432B-FD1A-465A-996A-D68068EA881F}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2023"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="準1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="短文"/>
+        <filter val="ストーリー"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/excel/shuwa_exam_question_list_ver0.03.xlsx
+++ b/excel/shuwa_exam_question_list_ver0.03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\マイドライブ\かつおーず\011_Creation\WebSite\shuwa_exam_site\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B098AB10-530C-43EC-B325-FF7872A31A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972F0F4-657D-44E4-BFB6-67D49D362EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="493">
   <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
@@ -6811,43 +6811,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1. 手話言語条例を施行する
-2. 手話通訳者を設置する
-3. 帰社会見に手話通訳を付ける
-4. 手話祭りを開催する</t>
-    <rPh sb="3" eb="9">
-      <t>シ;ゲンゴジョウレイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セコウ</t>
-    </rPh>
-    <rPh sb="18" eb="23">
-      <t>シ;ツウヤクシャ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>キシャ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイケン</t>
-    </rPh>
-    <rPh sb="37" eb="41">
-      <t>シ;ツウヤク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>シ;マツ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>カイサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1. 辞書と動画
 2. パンフレットと漫画
 3. 辞書とホームページ
@@ -7245,34 +7208,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>今日は息子の運動会を見に行きました。手話で踊っていた驚きました。</t>
-    <rPh sb="0" eb="2">
-      <t>ky</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ムスコ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ウンドウカイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シ;</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オド</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オドロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>この辺りはタバコを吸っている学生が多いので、先生が厳しく巡回しています。</t>
     <rPh sb="2" eb="3">
       <t>アタ</t>
@@ -8423,6 +8358,195 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>セカイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. 手話言語条例を施行する
+2. 手話通訳者を設置する
+3. 記者会見に手話通訳を付ける
+4. 手話祭りを開催する</t>
+    <rPh sb="3" eb="9">
+      <t>シ;ゲンゴジョウレイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セコウ</t>
+    </rPh>
+    <rPh sb="18" eb="23">
+      <t>シ;ツウヤクシャ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キシャ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイケン</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>シ;ツウヤク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>シ;マツ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カイサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>今日は息子の文化祭を見に行きました。手話で踊っていた驚きました。</t>
+    <rPh sb="0" eb="2">
+      <t>ky</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ムスコ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ブンカサイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シ;</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オド</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オドロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>椅子に座る様子で【出席】する。</t>
+    <rPh sb="0" eb="2">
+      <t>イス</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュッセキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自分を親指に見立てて支援されるようなイメージ。向きで意味が変わる。</t>
+    <rPh sb="0" eb="3">
+      <t>ジフォ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>オヤユビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>24時間営業のことを表してコンビニ。最近は24時間営業ではないコンビニも現れている。</t>
+    <rPh sb="2" eb="4">
+      <t>jk</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>jk</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>胸をかきむしる様子。両手で表現してもよい。</t>
+    <rPh sb="0" eb="1">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リョウテ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒ;</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この手話だけは知っている人が多い。</t>
+    <rPh sb="2" eb="4">
+      <t>シ;</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>r</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>集団やイベントなどはこのように円を描くようにして表現されることがある。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウダン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒ;</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【会】＋【長】。</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オサ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -8530,14 +8654,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
@@ -8553,8 +8675,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8838,4419 +8960,4416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6B432B-FD1A-465A-996A-D68068EA881F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="40.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="57.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="57.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A2" s="7">
+      <c r="J1" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A2" s="5">
         <f t="shared" ref="A2:A40" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="7" t="str">
+      <c r="E2" s="5" t="str">
         <f>IF(D2="ストーリー", INT((COUNTIF($D$2:D2, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A3" s="7">
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A3" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E3" s="7" t="str">
+      <c r="E3" s="5" t="str">
         <f>IF(D3="ストーリー", INT((COUNTIF($D$2:D3, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A4" s="7">
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="7" t="str">
+      <c r="E4" s="5" t="str">
         <f>IF(D4="ストーリー", INT((COUNTIF($D$2:D4, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A5" s="7">
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E5" s="7" t="str">
+      <c r="E5" s="5" t="str">
         <f>IF(D5="ストーリー", INT((COUNTIF($D$2:D5, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A6" s="7">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E6" s="7" t="str">
+      <c r="E6" s="5" t="str">
         <f>IF(D6="ストーリー", INT((COUNTIF($D$2:D6, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A7" s="7">
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="5" t="str">
         <f>IF(D7="ストーリー", INT((COUNTIF($D$2:D7, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A8" s="7">
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E8" s="7" t="str">
+      <c r="E8" s="5" t="str">
         <f>IF(D8="ストーリー", INT((COUNTIF($D$2:D8, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A9" s="7">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="7" t="str">
+      <c r="E9" s="5" t="str">
         <f>IF(D9="ストーリー", INT((COUNTIF($D$2:D9, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A10" s="7">
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E10" s="7" t="str">
+      <c r="E10" s="5" t="str">
         <f>IF(D10="ストーリー", INT((COUNTIF($D$2:D10, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A11" s="7">
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="7" t="str">
+      <c r="E11" s="5" t="str">
         <f>IF(D11="ストーリー", INT((COUNTIF($D$2:D11, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A12" s="7">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A12" s="5">
         <f>ROW()-1</f>
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>4</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E12" s="7" t="str">
+      <c r="E12" s="5" t="str">
         <f>IF(D12="ストーリー", INT((COUNTIF($D$2:D12, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A13" s="7">
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A13" s="5">
         <f t="shared" ref="A13:A78" si="1">ROW()-1</f>
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E13" s="7" t="str">
+      <c r="E13" s="5" t="str">
         <f>IF(D13="ストーリー", INT((COUNTIF($D$2:D13, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A14" s="7">
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>4</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E14" s="7" t="str">
+      <c r="E14" s="5" t="str">
         <f>IF(D14="ストーリー", INT((COUNTIF($D$2:D14, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A15" s="7">
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>4</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E15" s="7" t="str">
+      <c r="E15" s="5" t="str">
         <f>IF(D15="ストーリー", INT((COUNTIF($D$2:D15, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A16" s="7">
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E16" s="7" t="str">
+      <c r="E16" s="5" t="str">
         <f>IF(D16="ストーリー", INT((COUNTIF($D$2:D16, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A17" s="7">
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E17" s="7" t="str">
+      <c r="E17" s="5" t="str">
         <f>IF(D17="ストーリー", INT((COUNTIF($D$2:D17, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A18" s="7">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="5" t="str">
         <f>IF(D18="ストーリー", INT((COUNTIF($D$2:D18, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A19" s="7">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A19" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E19" s="7" t="str">
+      <c r="E19" s="5" t="str">
         <f>IF(D19="ストーリー", INT((COUNTIF($D$2:D19, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A20" s="7">
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>4</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="5" t="str">
         <f>IF(D20="ストーリー", INT((COUNTIF($D$2:D20, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A21" s="7">
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E21" s="7" t="str">
+      <c r="E21" s="5" t="str">
         <f>IF(D21="ストーリー", INT((COUNTIF($D$2:D21, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A22" s="7">
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A22" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>4</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="5" t="str">
         <f>IF(D22="ストーリー", INT((COUNTIF($D$2:D22, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A23" s="7">
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>4</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E23" s="7" t="str">
+      <c r="E23" s="5" t="str">
         <f>IF(D23="ストーリー", INT((COUNTIF($D$2:D23, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A24" s="7">
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A24" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>4</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="5" t="str">
         <f>IF(D24="ストーリー", INT((COUNTIF($D$2:D24, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A25" s="7">
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A25" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>3</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="5" t="str">
         <f>IF(D25="ストーリー", INT((COUNTIF($D$2:D25, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8" t="s">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A26" s="7">
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A26" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>3</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="7" t="str">
+      <c r="E26" s="5" t="str">
         <f>IF(D26="ストーリー", INT((COUNTIF($D$2:D26, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A27" s="7">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A27" s="5">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>3</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E27" s="7" t="str">
+      <c r="E27" s="5" t="str">
         <f>IF(D27="ストーリー", INT((COUNTIF($D$2:D27, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A28" s="7">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A28" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E28" s="7" t="str">
+      <c r="E28" s="5" t="str">
         <f>IF(D28="ストーリー", INT((COUNTIF($D$2:D28, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A29" s="7">
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A29" s="5">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>3</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="5" t="str">
         <f>IF(D29="ストーリー", INT((COUNTIF($D$2:D29, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A30" s="7">
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A30" s="5">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>3</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E30" s="7" t="str">
+      <c r="E30" s="5" t="str">
         <f>IF(D30="ストーリー", INT((COUNTIF($D$2:D30, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A31" s="7">
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A31" s="5">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>3</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E31" s="7" t="str">
+      <c r="E31" s="5" t="str">
         <f>IF(D31="ストーリー", INT((COUNTIF($D$2:D31, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A32" s="7">
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A32" s="5">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>3</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E32" s="7" t="str">
+      <c r="E32" s="5" t="str">
         <f>IF(D32="ストーリー", INT((COUNTIF($D$2:D32, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A33" s="7">
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A33" s="5">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>3</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E33" s="7" t="str">
+      <c r="E33" s="5" t="str">
         <f>IF(D33="ストーリー", INT((COUNTIF($D$2:D33, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A34" s="7">
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A34" s="5">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>3</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E34" s="7" t="str">
+      <c r="E34" s="5" t="str">
         <f>IF(D34="ストーリー", INT((COUNTIF($D$2:D34, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8" t="s">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A35" s="7">
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A35" s="5">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>3</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E35" s="7" t="str">
+      <c r="E35" s="5" t="str">
         <f>IF(D35="ストーリー", INT((COUNTIF($D$2:D35, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8" t="s">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A36" s="7">
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A36" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="5">
         <v>3</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="7" t="str">
+      <c r="E36" s="5" t="str">
         <f>IF(D36="ストーリー", INT((COUNTIF($D$2:D36, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8" t="s">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A37" s="7">
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A37" s="5">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>3</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E37" s="7" t="str">
+      <c r="E37" s="5" t="str">
         <f>IF(D37="ストーリー", INT((COUNTIF($D$2:D37, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8" t="s">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A38" s="7">
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="5">
         <v>3</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E38" s="7" t="str">
+      <c r="E38" s="5" t="str">
         <f>IF(D38="ストーリー", INT((COUNTIF($D$2:D38, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8" t="s">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A39" s="7">
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="5">
         <v>3</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="7" t="str">
+      <c r="E39" s="5" t="str">
         <f>IF(D39="ストーリー", INT((COUNTIF($D$2:D39, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8" t="s">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A40" s="7">
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="5">
         <v>3</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E40" s="7" t="str">
+      <c r="E40" s="5" t="str">
         <f>IF(D40="ストーリー", INT((COUNTIF($D$2:D40, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" hidden="1">
-      <c r="A41" s="7">
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="5">
         <v>2</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E41" s="7" t="str">
+      <c r="E41" s="5" t="str">
         <f>IF(D41="ストーリー", INT((COUNTIF($D$2:D41, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="8" t="s">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" hidden="1">
-      <c r="A42" s="7">
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="5">
         <v>2</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E42" s="7" t="str">
+      <c r="E42" s="5" t="str">
         <f>IF(D42="ストーリー", INT((COUNTIF($D$2:D42, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8" t="s">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" hidden="1">
-      <c r="A43" s="7">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="5">
         <v>2</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E43" s="7" t="str">
+      <c r="E43" s="5" t="str">
         <f>IF(D43="ストーリー", INT((COUNTIF($D$2:D43, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8" t="s">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" hidden="1">
-      <c r="A44" s="7">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="5">
         <v>2</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E44" s="7" t="str">
+      <c r="E44" s="5" t="str">
         <f>IF(D44="ストーリー", INT((COUNTIF($D$2:D44, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8" t="s">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" hidden="1">
-      <c r="A45" s="7">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="5">
         <v>2</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E45" s="7" t="str">
+      <c r="E45" s="5" t="str">
         <f>IF(D45="ストーリー", INT((COUNTIF($D$2:D45, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="8" t="s">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" hidden="1">
-      <c r="A46" s="7">
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="5">
         <v>2</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E46" s="7" t="str">
+      <c r="E46" s="5" t="str">
         <f>IF(D46="ストーリー", INT((COUNTIF($D$2:D46, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="8" t="s">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" hidden="1">
-      <c r="A47" s="7">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="5">
         <v>2</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E47" s="7" t="str">
+      <c r="E47" s="5" t="str">
         <f>IF(D47="ストーリー", INT((COUNTIF($D$2:D47, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="8" t="s">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" hidden="1">
-      <c r="A48" s="7">
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="5">
         <v>2</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E48" s="7" t="str">
+      <c r="E48" s="5" t="str">
         <f>IF(D48="ストーリー", INT((COUNTIF($D$2:D48, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="8" t="s">
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" hidden="1">
-      <c r="A49" s="7">
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="5">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="5">
         <v>2</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E49" s="7" t="str">
+      <c r="E49" s="5" t="str">
         <f>IF(D49="ストーリー", INT((COUNTIF($D$2:D49, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="8" t="s">
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" hidden="1">
-      <c r="A50" s="7">
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="5">
         <v>2</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E50" s="7" t="str">
+      <c r="E50" s="5" t="str">
         <f>IF(D50="ストーリー", INT((COUNTIF($D$2:D50, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="8" t="s">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" hidden="1">
-      <c r="A51" s="7">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="5">
         <v>2</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E51" s="7" t="str">
+      <c r="E51" s="5" t="str">
         <f>IF(D51="ストーリー", INT((COUNTIF($D$2:D51, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8" t="s">
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" hidden="1">
-      <c r="A52" s="7">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="5">
         <v>2</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E52" s="7" t="str">
+      <c r="E52" s="5" t="str">
         <f>IF(D52="ストーリー", INT((COUNTIF($D$2:D52, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="8" t="s">
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" hidden="1">
-      <c r="A53" s="7">
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="5">
         <v>2</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E53" s="5" t="str">
         <f>IF(D53="ストーリー", INT((COUNTIF($D$2:D53, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8" t="s">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" hidden="1">
-      <c r="A54" s="7">
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="5">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="5">
         <v>2</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="5" t="str">
         <f>IF(D54="ストーリー", INT((COUNTIF($D$2:D54, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="8" t="s">
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A55" s="7">
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A55" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="5" t="str">
         <f>IF(D55="ストーリー", INT((COUNTIF($D$2:D55, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8" t="s">
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A56" s="7">
+      <c r="J55" s="8"/>
+    </row>
+    <row r="56" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A56" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="5" t="str">
         <f>IF(D56="ストーリー", INT((COUNTIF($D$2:D56, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="8" t="s">
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A57" s="7">
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A57" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E57" s="7" t="str">
+      <c r="E57" s="5" t="str">
         <f>IF(D57="ストーリー", INT((COUNTIF($D$2:D57, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="8" t="s">
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A58" s="7">
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A58" s="5">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="5" t="str">
         <f>IF(D58="ストーリー", INT((COUNTIF($D$2:D58, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8" t="s">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A59" s="7">
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A59" s="5">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="7" t="str">
+      <c r="E59" s="5" t="str">
         <f>IF(D59="ストーリー", INT((COUNTIF($D$2:D59, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8" t="s">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A60" s="7">
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A60" s="5">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="5" t="str">
         <f>IF(D60="ストーリー", INT((COUNTIF($D$2:D60, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8" t="s">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A61" s="7">
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A61" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E61" s="7" t="str">
+      <c r="E61" s="5" t="str">
         <f>IF(D61="ストーリー", INT((COUNTIF($D$2:D61, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="8" t="s">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A62" s="7">
+      <c r="J61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A62" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E62" s="7" t="str">
+      <c r="E62" s="5" t="str">
         <f>IF(D62="ストーリー", INT((COUNTIF($D$2:D62, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="8" t="s">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A63" s="7">
+      <c r="J62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A63" s="5">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E63" s="7" t="str">
+      <c r="E63" s="5" t="str">
         <f>IF(D63="ストーリー", INT((COUNTIF($D$2:D63, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="8" t="s">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A64" s="7">
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A64" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E64" s="7" t="str">
+      <c r="E64" s="5" t="str">
         <f>IF(D64="ストーリー", INT((COUNTIF($D$2:D64, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="8" t="s">
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A65" s="7">
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A65" s="5">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E65" s="7" t="str">
+      <c r="E65" s="5" t="str">
         <f>IF(D65="ストーリー", INT((COUNTIF($D$2:D65, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="8" t="s">
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A66" s="7">
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A66" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E66" s="7" t="str">
+      <c r="E66" s="5" t="str">
         <f>IF(D66="ストーリー", INT((COUNTIF($D$2:D66, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="8" t="s">
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A67" s="7">
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A67" s="5">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="5">
         <v>1</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E67" s="7" t="str">
+      <c r="E67" s="5" t="str">
         <f>IF(D67="ストーリー", INT((COUNTIF($D$2:D67, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="8" t="s">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A68" s="7">
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A68" s="5">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="5">
         <v>1</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E68" s="7" t="str">
+      <c r="E68" s="5" t="str">
         <f>IF(D68="ストーリー", INT((COUNTIF($D$2:D68, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="8" t="s">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A69" s="7">
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A69" s="5">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="5">
         <v>1</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E69" s="7" t="str">
+      <c r="E69" s="5" t="str">
         <f>IF(D69="ストーリー", INT((COUNTIF($D$2:D69, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="8" t="s">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A70" s="7">
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A70" s="5">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="5">
         <v>1</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E70" s="7" t="str">
+      <c r="E70" s="5" t="str">
         <f>IF(D70="ストーリー", INT((COUNTIF($D$2:D70, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="8" t="s">
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A71" s="7">
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A71" s="5">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="5">
         <v>1</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E71" s="7" t="str">
+      <c r="E71" s="5" t="str">
         <f>IF(D71="ストーリー", INT((COUNTIF($D$2:D71, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="8" t="s">
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A72" s="7">
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A72" s="5">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="5">
         <v>1</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E72" s="7" t="str">
+      <c r="E72" s="5" t="str">
         <f>IF(D72="ストーリー", INT((COUNTIF($D$2:D72, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="8" t="s">
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A73" s="7">
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A73" s="5">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="5">
         <v>1</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E73" s="7" t="str">
+      <c r="E73" s="5" t="str">
         <f>IF(D73="ストーリー", INT((COUNTIF($D$2:D73, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="8" t="s">
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A74" s="7">
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A74" s="5">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="5">
         <v>1</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E74" s="7" t="str">
+      <c r="E74" s="5" t="str">
         <f>IF(D74="ストーリー", INT((COUNTIF($D$2:D74, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="8" t="s">
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A75" s="7">
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A75" s="5">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="5">
         <v>1</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E75" s="7" t="str">
+      <c r="E75" s="5" t="str">
         <f>IF(D75="ストーリー", INT((COUNTIF($D$2:D75, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="8" t="s">
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A76" s="7">
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A76" s="5">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="5">
         <v>1</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E76" s="7" t="str">
+      <c r="E76" s="5" t="str">
         <f>IF(D76="ストーリー", INT((COUNTIF($D$2:D76, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="8" t="s">
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A77" s="7">
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A77" s="5">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="5">
         <v>1</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E77" s="7" t="str">
+      <c r="E77" s="5" t="str">
         <f>IF(D77="ストーリー", INT((COUNTIF($D$2:D77, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="8" t="s">
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" customFormat="1" ht="18.75" hidden="1">
-      <c r="A78" s="7">
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" customFormat="1" ht="18.75">
+      <c r="A78" s="5">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="5">
         <v>1</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E78" s="7" t="str">
+      <c r="E78" s="5" t="str">
         <f>IF(D78="ストーリー", INT((COUNTIF($D$2:D78, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="8" t="s">
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" ht="63" hidden="1">
-      <c r="A79" s="7">
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:10" ht="63">
+      <c r="A79" s="5">
         <f t="shared" ref="A79:A142" si="2">ROW()-1</f>
         <v>78</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="5">
         <v>2023</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="5">
         <v>5</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E79" s="7" t="str">
+      <c r="E79" s="5" t="str">
         <f>IF(D79="ストーリー", INT((COUNTIF($D$2:D79, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="5">
         <v>2</v>
       </c>
-      <c r="I79" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="63" hidden="1">
-      <c r="A80" s="7">
+      <c r="I79" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="63">
+      <c r="A80" s="5">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="5">
         <v>2023</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="5">
         <v>5</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E80" s="7" t="str">
+      <c r="E80" s="5" t="str">
         <f>IF(D80="ストーリー", INT((COUNTIF($D$2:D80, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="5">
         <v>3</v>
       </c>
-      <c r="I80" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="63" hidden="1">
-      <c r="A81" s="7">
+      <c r="I80" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="63">
+      <c r="A81" s="5">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="5">
         <v>2023</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="5">
         <v>5</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E81" s="7" t="str">
+      <c r="E81" s="5" t="str">
         <f>IF(D81="ストーリー", INT((COUNTIF($D$2:D81, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="5">
         <v>3</v>
       </c>
-      <c r="I81" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="63" hidden="1">
-      <c r="A82" s="7">
+      <c r="I81" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="63">
+      <c r="A82" s="5">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="5">
         <v>2023</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="5">
         <v>5</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="7" t="str">
+      <c r="E82" s="5" t="str">
         <f>IF(D82="ストーリー", INT((COUNTIF($D$2:D82, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="5">
         <v>1</v>
       </c>
-      <c r="I82" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="63" hidden="1">
-      <c r="A83" s="7">
+      <c r="I82" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="63">
+      <c r="A83" s="5">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="5">
         <v>2023</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="5">
         <v>5</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E83" s="7" t="str">
+      <c r="E83" s="5" t="str">
         <f>IF(D83="ストーリー", INT((COUNTIF($D$2:D83, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="5">
         <v>3</v>
       </c>
-      <c r="I83" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="63" hidden="1">
-      <c r="A84" s="7">
+      <c r="I83" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="63">
+      <c r="A84" s="5">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="5">
         <v>2023</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="5">
         <v>5</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E84" s="7" t="str">
+      <c r="E84" s="5" t="str">
         <f>IF(D84="ストーリー", INT((COUNTIF($D$2:D84, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="5">
         <v>2</v>
       </c>
-      <c r="I84" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="63" hidden="1">
-      <c r="A85" s="7">
+      <c r="I84" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="63">
+      <c r="A85" s="5">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="5">
         <v>2023</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="5">
         <v>5</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E85" s="7" t="str">
+      <c r="E85" s="5" t="str">
         <f>IF(D85="ストーリー", INT((COUNTIF($D$2:D85, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="5">
         <v>4</v>
       </c>
-      <c r="I85" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="63" hidden="1">
-      <c r="A86" s="7">
+      <c r="I85" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="63">
+      <c r="A86" s="5">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="5">
         <v>2023</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="5">
         <v>5</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E86" s="7" t="str">
+      <c r="E86" s="5" t="str">
         <f>IF(D86="ストーリー", INT((COUNTIF($D$2:D86, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="5">
         <v>2</v>
       </c>
-      <c r="I86" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="63" hidden="1">
-      <c r="A87" s="7">
+      <c r="I86" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="63">
+      <c r="A87" s="5">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="5">
         <v>2023</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="5">
         <v>5</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E87" s="7" t="str">
+      <c r="E87" s="5" t="str">
         <f>IF(D87="ストーリー", INT((COUNTIF($D$2:D87, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="5">
         <v>1</v>
       </c>
-      <c r="I87" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="63" hidden="1">
-      <c r="A88" s="7">
+      <c r="I87" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="63">
+      <c r="A88" s="5">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="5">
         <v>2023</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="5">
         <v>5</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E88" s="7" t="str">
+      <c r="E88" s="5" t="str">
         <f>IF(D88="ストーリー", INT((COUNTIF($D$2:D88, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="H88" s="7">
+      <c r="G88" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H88" s="5">
         <v>1</v>
       </c>
-      <c r="I88" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="63" hidden="1">
-      <c r="A89" s="7">
+      <c r="I88" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="63">
+      <c r="A89" s="5">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89" s="5">
         <v>2023</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="5">
         <v>4</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E89" s="7" t="str">
+      <c r="E89" s="5" t="str">
         <f>IF(D89="ストーリー", INT((COUNTIF($D$2:D89, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="5">
         <v>1</v>
       </c>
-      <c r="I89" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="63" hidden="1">
-      <c r="A90" s="7">
+      <c r="I89" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="63">
+      <c r="A90" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B90" s="7">
+      <c r="B90" s="5">
         <v>2023</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="5">
         <v>4</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E90" s="7" t="str">
+      <c r="E90" s="5" t="str">
         <f>IF(D90="ストーリー", INT((COUNTIF($D$2:D90, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="G90" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="5">
         <v>2</v>
       </c>
-      <c r="I90" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="63" hidden="1">
-      <c r="A91" s="7">
+      <c r="I90" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="63">
+      <c r="A91" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B91" s="7">
+      <c r="B91" s="5">
         <v>2023</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="5">
         <v>4</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E91" s="7" t="str">
+      <c r="E91" s="5" t="str">
         <f>IF(D91="ストーリー", INT((COUNTIF($D$2:D91, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="5">
         <v>3</v>
       </c>
-      <c r="I91" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="63" hidden="1">
-      <c r="A92" s="7">
+      <c r="I91" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="63">
+      <c r="A92" s="5">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="5">
         <v>2023</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="5">
         <v>4</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E92" s="7" t="str">
+      <c r="E92" s="5" t="str">
         <f>IF(D92="ストーリー", INT((COUNTIF($D$2:D92, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="5">
         <v>4</v>
       </c>
-      <c r="I92" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="63" hidden="1">
-      <c r="A93" s="7">
+      <c r="I92" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="63">
+      <c r="A93" s="5">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="5">
         <v>2023</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="5">
         <v>4</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E93" s="7" t="str">
+      <c r="E93" s="5" t="str">
         <f>IF(D93="ストーリー", INT((COUNTIF($D$2:D93, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="5">
         <v>2</v>
       </c>
-      <c r="I93" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="63" hidden="1">
-      <c r="A94" s="7">
+      <c r="I93" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="63">
+      <c r="A94" s="5">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="5">
         <v>2023</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="5">
         <v>4</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E94" s="7" t="str">
+      <c r="E94" s="5" t="str">
         <f>IF(D94="ストーリー", INT((COUNTIF($D$2:D94, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="G94" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="5">
         <v>1</v>
       </c>
-      <c r="I94" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="63" hidden="1">
-      <c r="A95" s="7">
+      <c r="I94" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="63">
+      <c r="A95" s="5">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="5">
         <v>2023</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="5">
         <v>4</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E95" s="7" t="str">
+      <c r="E95" s="5" t="str">
         <f>IF(D95="ストーリー", INT((COUNTIF($D$2:D95, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="5">
         <v>1</v>
       </c>
-      <c r="I95" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="63" hidden="1">
-      <c r="A96" s="7">
+      <c r="I95" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="63">
+      <c r="A96" s="5">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="5">
         <v>2023</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="5">
         <v>4</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E96" s="7" t="str">
+      <c r="E96" s="5" t="str">
         <f>IF(D96="ストーリー", INT((COUNTIF($D$2:D96, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="5">
         <v>2</v>
       </c>
-      <c r="I96" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="63" hidden="1">
-      <c r="A97" s="7">
+      <c r="I96" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="63">
+      <c r="A97" s="5">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="5">
         <v>2023</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="5">
         <v>4</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E97" s="7" t="str">
+      <c r="E97" s="5" t="str">
         <f>IF(D97="ストーリー", INT((COUNTIF($D$2:D97, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="5">
         <v>4</v>
       </c>
-      <c r="I97" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="63" hidden="1">
-      <c r="A98" s="7">
+      <c r="I97" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="63">
+      <c r="A98" s="5">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B98" s="7">
+      <c r="B98" s="5">
         <v>2023</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="5">
         <v>4</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E98" s="7" t="str">
+      <c r="E98" s="5" t="str">
         <f>IF(D98="ストーリー", INT((COUNTIF($D$2:D98, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="5">
         <v>1</v>
       </c>
-      <c r="I98" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="63" hidden="1">
-      <c r="A99" s="7">
+      <c r="I98" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="63">
+      <c r="A99" s="5">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99" s="5">
         <v>2023</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="5">
         <v>3</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E99" s="7" t="str">
+      <c r="E99" s="5" t="str">
         <f>IF(D99="ストーリー", INT((COUNTIF($D$2:D99, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="5">
         <v>1</v>
       </c>
-      <c r="I99" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="1:10" ht="63" hidden="1">
-      <c r="A100" s="7">
+      <c r="I99" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="63">
+      <c r="A100" s="5">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100" s="5">
         <v>2023</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="5">
         <v>3</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E100" s="7" t="str">
+      <c r="E100" s="5" t="str">
         <f>IF(D100="ストーリー", INT((COUNTIF($D$2:D100, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="5">
         <v>4</v>
       </c>
-      <c r="I100" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="1:10" ht="63" hidden="1">
-      <c r="A101" s="7">
+      <c r="I100" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="63">
+      <c r="A101" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101" s="5">
         <v>2023</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="5">
         <v>3</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E101" s="7" t="str">
+      <c r="E101" s="5" t="str">
         <f>IF(D101="ストーリー", INT((COUNTIF($D$2:D101, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H101" s="5">
         <v>2</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="J101" s="4"/>
-    </row>
-    <row r="102" spans="1:10" ht="63" hidden="1">
-      <c r="A102" s="7">
+      <c r="I101" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="63">
+      <c r="A102" s="5">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="5">
         <v>2023</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="5">
         <v>3</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E102" s="7" t="str">
+      <c r="E102" s="5" t="str">
         <f>IF(D102="ストーリー", INT((COUNTIF($D$2:D102, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G102" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H102" s="5">
         <v>4</v>
       </c>
-      <c r="I102" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="J102" s="4"/>
-    </row>
-    <row r="103" spans="1:10" ht="63" hidden="1">
-      <c r="A103" s="7">
+      <c r="I102" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="63">
+      <c r="A103" s="5">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="5">
         <v>2023</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="5">
         <v>3</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E103" s="7" t="str">
+      <c r="E103" s="5" t="str">
         <f>IF(D103="ストーリー", INT((COUNTIF($D$2:D103, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103" s="5">
         <v>2</v>
       </c>
-      <c r="I103" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="J103" s="4"/>
-    </row>
-    <row r="104" spans="1:10" ht="63" hidden="1">
-      <c r="A104" s="7">
+      <c r="I103" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="63">
+      <c r="A104" s="5">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="5">
         <v>2023</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="5">
         <v>3</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E104" s="7" t="str">
+      <c r="E104" s="5" t="str">
         <f>IF(D104="ストーリー", INT((COUNTIF($D$2:D104, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="G104" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H104" s="7">
-        <v>3</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="63" hidden="1">
-      <c r="A105" s="7">
+      <c r="H104" s="5">
+        <v>4</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="63">
+      <c r="A105" s="5">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="5">
         <v>2023</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="5">
         <v>3</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E105" s="7" t="str">
+      <c r="E105" s="5" t="str">
         <f>IF(D105="ストーリー", INT((COUNTIF($D$2:D105, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105" s="5">
         <v>3</v>
       </c>
-      <c r="I105" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="63" hidden="1">
-      <c r="A106" s="7">
+      <c r="I105" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="63">
+      <c r="A106" s="5">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="5">
         <v>2023</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="5">
         <v>3</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E106" s="7" t="str">
+      <c r="E106" s="5" t="str">
         <f>IF(D106="ストーリー", INT((COUNTIF($D$2:D106, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106" s="5">
         <v>2</v>
       </c>
-      <c r="I106" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="63" hidden="1">
-      <c r="A107" s="7">
+      <c r="I106" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="63">
+      <c r="A107" s="5">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="5">
         <v>2023</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="5">
         <v>3</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E107" s="7" t="str">
+      <c r="E107" s="5" t="str">
         <f>IF(D107="ストーリー", INT((COUNTIF($D$2:D107, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107" s="5">
         <v>3</v>
       </c>
-      <c r="I107" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="63" hidden="1">
-      <c r="A108" s="7">
+      <c r="I107" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="63">
+      <c r="A108" s="5">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108" s="5">
         <v>2023</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="5">
         <v>3</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E108" s="7" t="str">
+      <c r="E108" s="5" t="str">
         <f>IF(D108="ストーリー", INT((COUNTIF($D$2:D108, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="G108" s="9" t="s">
+      <c r="G108" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108" s="5">
         <v>1</v>
       </c>
-      <c r="I108" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="63" hidden="1">
-      <c r="A109" s="7">
+      <c r="I108" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="63">
+      <c r="A109" s="5">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109" s="5">
         <v>2023</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="5">
         <v>2</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E109" s="7" t="str">
+      <c r="E109" s="5" t="str">
         <f>IF(D109="ストーリー", INT((COUNTIF($D$2:D109, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109" s="5">
         <v>2</v>
       </c>
-      <c r="I109" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="J109" s="4"/>
-    </row>
-    <row r="110" spans="1:10" ht="63" hidden="1">
-      <c r="A110" s="7">
+      <c r="I109" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="63">
+      <c r="A110" s="5">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="5">
         <v>2023</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="5">
         <v>2</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E110" s="7" t="str">
+      <c r="E110" s="5" t="str">
         <f>IF(D110="ストーリー", INT((COUNTIF($D$2:D110, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="G110" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="5">
         <v>1</v>
       </c>
-      <c r="I110" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="J110" s="4"/>
-    </row>
-    <row r="111" spans="1:10" ht="63" hidden="1">
-      <c r="A111" s="7">
+      <c r="I110" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="63">
+      <c r="A111" s="5">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="5">
         <v>2023</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="5">
         <v>2</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E111" s="7" t="str">
+      <c r="E111" s="5" t="str">
         <f>IF(D111="ストーリー", INT((COUNTIF($D$2:D111, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H111" s="5">
         <v>3</v>
       </c>
-      <c r="I111" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="J111" s="4"/>
-    </row>
-    <row r="112" spans="1:10" ht="63" hidden="1">
-      <c r="A112" s="7">
+      <c r="I111" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="1:10" ht="63">
+      <c r="A112" s="5">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="5">
         <v>2023</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="5">
         <v>2</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E112" s="7" t="str">
+      <c r="E112" s="5" t="str">
         <f>IF(D112="ストーリー", INT((COUNTIF($D$2:D112, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G112" s="9" t="s">
+      <c r="G112" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H112" s="7">
+      <c r="H112" s="5">
         <v>4</v>
       </c>
-      <c r="I112" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="J112" s="4"/>
-    </row>
-    <row r="113" spans="1:10" ht="63" hidden="1">
-      <c r="A113" s="7">
+      <c r="I112" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="1:10" ht="63">
+      <c r="A113" s="5">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="5">
         <v>2023</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="5">
         <v>2</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="5">
         <f>IF(D113="ストーリー", INT((COUNTIF($D$2:D113, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>1</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113" s="5">
         <v>1</v>
       </c>
-      <c r="I113" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="J113" s="10" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="63" hidden="1">
-      <c r="A114" s="7">
+      <c r="I113" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="63">
+      <c r="A114" s="5">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="5">
         <v>2023</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="5">
         <v>2</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="5">
         <f>IF(D114="ストーリー", INT((COUNTIF($D$2:D114, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>1</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="G114" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114" s="5">
         <v>2</v>
       </c>
-      <c r="I114" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="J114" s="10" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="63" hidden="1">
-      <c r="A115" s="7">
+      <c r="I114" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="63">
+      <c r="A115" s="5">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="5">
         <v>2023</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="5">
         <v>2</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="5">
         <f>IF(D115="ストーリー", INT((COUNTIF($D$2:D115, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>1</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115" s="5">
         <v>2</v>
       </c>
-      <c r="I115" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="J115" s="10" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="63" hidden="1">
-      <c r="A116" s="7">
+      <c r="I115" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="63">
+      <c r="A116" s="5">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="5">
         <v>2023</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="5">
         <v>2</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="5">
         <f>IF(D116="ストーリー", INT((COUNTIF($D$2:D116, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>2</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="G116" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116" s="5">
         <v>1</v>
       </c>
-      <c r="I116" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="J116" s="10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="63" hidden="1">
-      <c r="A117" s="7">
+      <c r="I116" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="63">
+      <c r="A117" s="5">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="5">
         <v>2023</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117" s="5">
         <v>2</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="5">
         <f>IF(D117="ストーリー", INT((COUNTIF($D$2:D117, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>2</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117" s="5">
         <v>3</v>
       </c>
-      <c r="I117" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="63" hidden="1">
-      <c r="A118" s="7">
+      <c r="I117" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="63">
+      <c r="A118" s="5">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="5">
         <v>2023</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118" s="5">
         <v>2</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="5">
         <f>IF(D118="ストーリー", INT((COUNTIF($D$2:D118, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>2</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G118" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118" s="5">
         <v>4</v>
       </c>
-      <c r="I118" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="J118" s="10" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="63" hidden="1">
-      <c r="A119" s="7">
+      <c r="I118" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="63">
+      <c r="A119" s="5">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119" s="5">
         <v>2023</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119" s="5">
         <v>2</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="5">
         <f>IF(D119="ストーリー", INT((COUNTIF($D$2:D119, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>3</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="5">
         <v>3</v>
       </c>
-      <c r="I119" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="J119" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="63" hidden="1">
-      <c r="A120" s="7">
+      <c r="I119" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="63">
+      <c r="A120" s="5">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="B120" s="7">
+      <c r="B120" s="5">
         <v>2023</v>
       </c>
-      <c r="C120" s="7">
+      <c r="C120" s="5">
         <v>2</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="5">
         <f>IF(D120="ストーリー", INT((COUNTIF($D$2:D120, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>3</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="G120" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="H120" s="7">
+      <c r="H120" s="5">
         <v>4</v>
       </c>
-      <c r="I120" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="J120" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="63" hidden="1">
-      <c r="A121" s="7">
+      <c r="I120" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="63">
+      <c r="A121" s="5">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="B121" s="7">
+      <c r="B121" s="5">
         <v>2023</v>
       </c>
-      <c r="C121" s="7">
+      <c r="C121" s="5">
         <v>2</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="5">
         <f>IF(D121="ストーリー", INT((COUNTIF($D$2:D121, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>3</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="G121" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="H121" s="7">
+      <c r="G121" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H121" s="5">
         <v>3</v>
       </c>
-      <c r="I121" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="J121" s="10" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="63" hidden="1">
-      <c r="A122" s="7">
+      <c r="I121" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="63">
+      <c r="A122" s="5">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="B122" s="7">
+      <c r="B122" s="5">
         <v>2023</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E122" s="7" t="str">
+      <c r="E122" s="5" t="str">
         <f>IF(D122="ストーリー", INT((COUNTIF($D$2:D122, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G122" s="9" t="s">
+      <c r="G122" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H122" s="5">
         <v>2</v>
       </c>
-      <c r="I122" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="J122" s="4"/>
-    </row>
-    <row r="123" spans="1:10" ht="63" hidden="1">
-      <c r="A123" s="7">
+      <c r="I122" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="1:10" ht="63">
+      <c r="A123" s="5">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-      <c r="B123" s="7">
+      <c r="B123" s="5">
         <v>2023</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E123" s="7" t="str">
+      <c r="E123" s="5" t="str">
         <f>IF(D123="ストーリー", INT((COUNTIF($D$2:D123, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H123" s="7">
+      <c r="H123" s="5">
         <v>1</v>
       </c>
-      <c r="I123" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="J123" s="4"/>
-    </row>
-    <row r="124" spans="1:10" ht="63" hidden="1">
-      <c r="A124" s="7">
+      <c r="I123" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="1:10" ht="63">
+      <c r="A124" s="5">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="B124" s="7">
+      <c r="B124" s="5">
         <v>2023</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E124" s="7" t="str">
+      <c r="E124" s="5" t="str">
         <f>IF(D124="ストーリー", INT((COUNTIF($D$2:D124, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G124" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H124" s="7">
+      <c r="H124" s="5">
         <v>4</v>
       </c>
-      <c r="I124" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="J124" s="4"/>
-    </row>
-    <row r="125" spans="1:10" ht="63" hidden="1">
-      <c r="A125" s="7">
+      <c r="I124" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="1:10" ht="63">
+      <c r="A125" s="5">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="B125" s="7">
+      <c r="B125" s="5">
         <v>2023</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E125" s="7" t="str">
+      <c r="E125" s="5" t="str">
         <f>IF(D125="ストーリー", INT((COUNTIF($D$2:D125, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>NA</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G125" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="H125" s="7">
+      <c r="H125" s="5">
         <v>4</v>
       </c>
-      <c r="I125" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="J125" s="4"/>
+      <c r="I125" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="J125" s="5"/>
     </row>
     <row r="126" spans="1:10" ht="78.75">
-      <c r="A126" s="7">
+      <c r="A126" s="5">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126" s="5">
         <v>2023</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="5">
         <f>IF(D126="ストーリー", INT((COUNTIF($D$2:D126, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>4</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G126" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="H126" s="7">
+      <c r="H126" s="5">
         <v>2</v>
       </c>
-      <c r="I126" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="J126" s="10" t="s">
-        <v>421</v>
+      <c r="I126" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="78.75">
-      <c r="A127" s="7">
+      <c r="A127" s="5">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="B127" s="7">
+      <c r="B127" s="5">
         <v>2023</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="5">
         <f>IF(D127="ストーリー", INT((COUNTIF($D$2:D127, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>4</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G127" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H127" s="7">
+      <c r="H127" s="5">
         <v>4</v>
       </c>
-      <c r="I127" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="J127" s="10" t="s">
-        <v>421</v>
+      <c r="I127" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="78.75">
-      <c r="A128" s="7">
+      <c r="A128" s="5">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128" s="5">
         <v>2023</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="5">
         <f>IF(D128="ストーリー", INT((COUNTIF($D$2:D128, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>4</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="G128" s="9" t="s">
+      <c r="G128" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H128" s="7">
+      <c r="H128" s="5">
         <v>2</v>
       </c>
-      <c r="I128" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="J128" s="10" t="s">
-        <v>421</v>
+      <c r="I128" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="78.75">
-      <c r="A129" s="7">
+      <c r="A129" s="5">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="B129" s="7">
+      <c r="B129" s="5">
         <v>2023</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="5">
         <f>IF(D129="ストーリー", INT((COUNTIF($D$2:D129, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>5</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="H129" s="7">
+      <c r="H129" s="5">
         <v>3</v>
       </c>
-      <c r="I129" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="J129" s="10" t="s">
-        <v>422</v>
+      <c r="I129" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="78.75">
-      <c r="A130" s="7">
+      <c r="A130" s="5">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="B130" s="7">
+      <c r="B130" s="5">
         <v>2023</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="5">
         <f>IF(D130="ストーリー", INT((COUNTIF($D$2:D130, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>5</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G130" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H130" s="7">
+      <c r="H130" s="5">
         <v>1</v>
       </c>
-      <c r="I130" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="J130" s="10" t="s">
-        <v>422</v>
+      <c r="I130" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="78.75">
-      <c r="A131" s="7">
+      <c r="A131" s="5">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="B131" s="7">
+      <c r="B131" s="5">
         <v>2023</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="5">
         <f>IF(D131="ストーリー", INT((COUNTIF($D$2:D131, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>5</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G131" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H131" s="7">
+      <c r="H131" s="5">
         <v>3</v>
       </c>
-      <c r="I131" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="J131" s="10" t="s">
-        <v>422</v>
+      <c r="I131" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="63">
-      <c r="A132" s="7">
+      <c r="A132" s="5">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="B132" s="7">
+      <c r="B132" s="5">
         <v>2023</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="5">
         <f>IF(D132="ストーリー", INT((COUNTIF($D$2:D132, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>6</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="G132" s="9" t="s">
+      <c r="G132" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H132" s="7">
+      <c r="H132" s="5">
         <v>1</v>
       </c>
-      <c r="I132" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="J132" s="10" t="s">
-        <v>483</v>
+      <c r="I132" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="63">
-      <c r="A133" s="7">
+      <c r="A133" s="5">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B133" s="7">
+      <c r="B133" s="5">
         <v>2023</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C133" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="5">
         <f>IF(D133="ストーリー", INT((COUNTIF($D$2:D133, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>6</v>
       </c>
-      <c r="F133" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="H133" s="7">
+      <c r="F133" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H133" s="5">
         <v>2</v>
       </c>
-      <c r="I133" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="J133" s="10" t="s">
-        <v>483</v>
+      <c r="I133" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="63">
-      <c r="A134" s="7">
+      <c r="A134" s="5">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B134" s="7">
+      <c r="B134" s="5">
         <v>2023</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="5">
         <f>IF(D134="ストーリー", INT((COUNTIF($D$2:D134, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>6</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="G134" s="9" t="s">
+      <c r="G134" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H134" s="7">
+      <c r="H134" s="5">
         <v>4</v>
       </c>
-      <c r="I134" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="J134" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="110.25" hidden="1">
-      <c r="A135" s="7">
+      <c r="I134" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="110.25">
+      <c r="A135" s="5">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B135" s="7">
+      <c r="B135" s="5">
         <v>2023</v>
       </c>
-      <c r="C135" s="7">
+      <c r="C135" s="5">
         <v>1</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="5">
         <f>IF(D135="ストーリー", INT((COUNTIF($D$2:D135, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>7</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F135" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="G135" s="9" t="s">
+      <c r="G135" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H135" s="7">
+      <c r="H135" s="5">
         <v>2</v>
       </c>
-      <c r="I135" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="J135" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="110.25" hidden="1">
-      <c r="A136" s="7">
+      <c r="I135" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="110.25">
+      <c r="A136" s="5">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B136" s="7">
+      <c r="B136" s="5">
         <v>2023</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C136" s="5">
         <v>1</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="5">
         <f>IF(D136="ストーリー", INT((COUNTIF($D$2:D136, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>7</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="G136" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="H136" s="7">
+      <c r="G136" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H136" s="5">
         <v>2</v>
       </c>
-      <c r="I136" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="J136" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="110.25" hidden="1">
-      <c r="A137" s="7">
+      <c r="I136" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J136" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="110.25">
+      <c r="A137" s="5">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B137" s="7">
+      <c r="B137" s="5">
         <v>2023</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C137" s="5">
         <v>1</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="5">
         <f>IF(D137="ストーリー", INT((COUNTIF($D$2:D137, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>7</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H137" s="5">
         <v>3</v>
       </c>
-      <c r="I137" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="J137" s="10" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="126" hidden="1">
-      <c r="A138" s="7">
+      <c r="I137" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="126">
+      <c r="A138" s="5">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B138" s="7">
+      <c r="B138" s="5">
         <v>2023</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="5">
         <v>1</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="5">
         <f>IF(D138="ストーリー", INT((COUNTIF($D$2:D138, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>8</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F138" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="G138" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="H138" s="7">
+      <c r="G138" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H138" s="5">
         <v>1</v>
       </c>
-      <c r="I138" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="J138" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="126" hidden="1">
-      <c r="A139" s="7">
+      <c r="I138" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="126">
+      <c r="A139" s="5">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B139" s="7">
+      <c r="B139" s="5">
         <v>2023</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C139" s="5">
         <v>1</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="5">
         <f>IF(D139="ストーリー", INT((COUNTIF($D$2:D139, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>8</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F139" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="G139" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="H139" s="7">
+      <c r="G139" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H139" s="5">
         <v>4</v>
       </c>
-      <c r="I139" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="J139" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="126" hidden="1">
-      <c r="A140" s="7">
+      <c r="I139" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="126">
+      <c r="A140" s="5">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B140" s="7">
+      <c r="B140" s="5">
         <v>2023</v>
       </c>
-      <c r="C140" s="7">
+      <c r="C140" s="5">
         <v>1</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="5">
         <f>IF(D140="ストーリー", INT((COUNTIF($D$2:D140, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>8</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="G140" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="H140" s="7">
+      <c r="G140" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H140" s="5">
         <v>3</v>
       </c>
-      <c r="I140" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="J140" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="94.5" hidden="1">
-      <c r="A141" s="7">
+      <c r="I140" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="94.5">
+      <c r="A141" s="5">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B141" s="7">
+      <c r="B141" s="5">
         <v>2023</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C141" s="5">
         <v>1</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="5">
         <f>IF(D141="ストーリー", INT((COUNTIF($D$2:D141, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>9</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="F141" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="G141" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="H141" s="7">
+      <c r="G141" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H141" s="5">
         <v>3</v>
       </c>
-      <c r="I141" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="J141" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="94.5" hidden="1">
-      <c r="A142" s="7">
+      <c r="I141" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="94.5">
+      <c r="A142" s="5">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B142" s="7">
+      <c r="B142" s="5">
         <v>2023</v>
       </c>
-      <c r="C142" s="7">
+      <c r="C142" s="5">
         <v>1</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="5">
         <f>IF(D142="ストーリー", INT((COUNTIF($D$2:D142, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>9</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F142" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="G142" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="H142" s="7">
+      <c r="G142" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H142" s="5">
         <v>2</v>
       </c>
-      <c r="I142" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="J142" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="94.5" hidden="1">
-      <c r="A143" s="7">
+      <c r="I142" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="94.5">
+      <c r="A143" s="5">
         <f t="shared" ref="A143" si="3">ROW()-1</f>
         <v>142</v>
       </c>
-      <c r="B143" s="7">
+      <c r="B143" s="5">
         <v>2023</v>
       </c>
-      <c r="C143" s="7">
+      <c r="C143" s="5">
         <v>1</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="5">
         <f>IF(D143="ストーリー", INT((COUNTIF($D$2:D143, "ストーリー")-1)/3) + 1, "NA")</f>
         <v>9</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F143" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G143" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H143" s="7">
+      <c r="H143" s="5">
         <v>3</v>
       </c>
-      <c r="I143" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="J143" s="10" t="s">
-        <v>426</v>
+      <c r="I143" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J143" s="7" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J143" xr:uid="{8B6B432B-FD1A-465A-996A-D68068EA881F}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2023"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="準1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="ストーリー"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J143" xr:uid="{8B6B432B-FD1A-465A-996A-D68068EA881F}"/>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="I12" r:id="rId1" xr:uid="{DFD40187-E81F-4C58-B5B2-76F0FC3FD553}"/>
@@ -13280,926 +13399,926 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="82.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="82.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="63">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>2023</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="110.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A34" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2023</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="63">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2023</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="63">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2023</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="63">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2023</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="63">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>2023</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="126">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2023</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="63">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>2023</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="78.75">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>2023</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>4</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="63">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>2023</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="63">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>2023</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="63">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>2023</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="63">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>2023</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="63">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>2023</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>4</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="63">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>2023</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>2</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="94.5">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>2023</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="63">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>2023</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="63">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>2023</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="63">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>2023</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="63">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>2023</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="63">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>2023</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>4</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="63">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>2023</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>2</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="63">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>2023</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>1</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="63">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>2023</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>2</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>2</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="63">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>2023</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="157.5">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>2023</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="126">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>2023</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="126">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>2023</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="126">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>2023</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="126">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>2023</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="126">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>2023</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="126">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>2023</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="126">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>2023</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="1" t="s">
         <v>201</v>
       </c>
     </row>
@@ -14220,911 +14339,911 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="79.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="79.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="63">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="5" t="str" cm="1">
+      <c r="D2" s="3" t="str" cm="1">
         <f t="array" ref="D2:G2">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A2),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 触手話</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="3" t="str">
         <v>2. 要約筆記</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="3" t="str">
         <v>3. 点字通訳</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="3" t="str">
         <v>4. 指文字</v>
       </c>
-      <c r="H2" s="5" t="str" cm="1">
+      <c r="H2" s="3" t="str" cm="1">
         <f t="array" ref="H2">INDEX(_xlfn.ANCHORARRAY(D2),B2)</f>
         <v>2. 要約筆記</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="3" t="str">
         <f>H2&amp;"。"&amp;C2</f>
         <v>2. 要約筆記。要約筆記は聴覚障害者の中でも中途失聴者や難聴者に対する支援方法。手書きやパソコンテイクといった方法がある。</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="5" t="str" cm="1">
+      <c r="D3" s="3" t="str" cm="1">
         <f t="array" ref="D3:G3">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A3),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 話し手の表情や口元が見える位置や顔の向きを考えて話すのがいい</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="3" t="str">
         <v>2. 筆談は簡単な文章がいいので、漢字は使わずひらがなで書くのがいい</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="3" t="str">
         <v>3. 空所は分かりやすいので、多用するほうがいい</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="3" t="str">
         <v>4. 手話を使うときは口型は全くつけない方がいい</v>
       </c>
-      <c r="H3" s="5" t="str" cm="1">
+      <c r="H3" s="3" t="str" cm="1">
         <f t="array" ref="H3">INDEX(_xlfn.ANCHORARRAY(D3),B3)</f>
         <v>1. 話し手の表情や口元が見える位置や顔の向きを考えて話すのがいい</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I26" si="0">H3&amp;"。"&amp;C3</f>
         <v>1. 話し手の表情や口元が見える位置や顔の向きを考えて話すのがいい。手話は口元も含めて顔の表情が見やすい工夫をすることが重要である</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="5" t="str" cm="1">
+      <c r="D4" s="3" t="str" cm="1">
         <f t="array" ref="D4:G4">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A4),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. コ</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="3" t="str">
         <v>2. ク</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="3" t="str">
         <v>3. セ</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="3" t="str">
         <v>4. ラ</v>
       </c>
-      <c r="H4" s="5" t="str" cm="1">
+      <c r="H4" s="3" t="str" cm="1">
         <f t="array" ref="H4">INDEX(_xlfn.ANCHORARRAY(D4),B4)</f>
         <v>4. ラ</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4. ラ。ラはアルファベットのRからきている</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="5" t="str" cm="1">
+      <c r="D5" s="3" t="str" cm="1">
         <f t="array" ref="D5:G5">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A5),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 手話には文法がある</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="3" t="str">
         <v>2. 手話はどの国も同じである</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="3" t="str">
         <v>3. 手話は伝承することができる</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="3" t="str">
         <v>4. 手話には方言がある</v>
       </c>
-      <c r="H5" s="5" t="str" cm="1">
+      <c r="H5" s="3" t="str" cm="1">
         <f t="array" ref="H5">INDEX(_xlfn.ANCHORARRAY(D5),B5)</f>
         <v>2. 手話はどの国も同じである</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2. 手話はどの国も同じである。手話は各国で異なる。</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="5" t="str" cm="1">
+      <c r="D6" s="3" t="str" cm="1">
         <f t="array" ref="D6:G6">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A6),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 補聴器を使用すると音の聞き分けが良くなる</v>
       </c>
-      <c r="E6" s="5" t="str">
+      <c r="E6" s="3" t="str">
         <v>2. 大きい音がうるさく聞こえる</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="3" t="str">
         <v>3. 小さい音が聞こえない</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="3" t="str">
         <v>4. 話し言葉の弁別がしにくい</v>
       </c>
-      <c r="H6" s="5" t="str" cm="1">
+      <c r="H6" s="3" t="str" cm="1">
         <f t="array" ref="H6">INDEX(_xlfn.ANCHORARRAY(D6),B6)</f>
         <v>1. 補聴器を使用すると音の聞き分けが良くなる</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1. 補聴器を使用すると音の聞き分けが良くなる。1は伝音声難聴の特徴である。</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="5" t="str" cm="1">
+      <c r="D7" s="3" t="str" cm="1">
         <f t="array" ref="D7:G7">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A7),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 障害者差別撤廃条約</v>
       </c>
-      <c r="E7" s="5" t="str">
+      <c r="E7" s="3" t="str">
         <v>2. 子どもの権利条約</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="3" t="str">
         <v>3. 障害者権利条約</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="3" t="str">
         <v>4. 女性差別撤廃条約</v>
       </c>
-      <c r="H7" s="5" t="str" cm="1">
+      <c r="H7" s="3" t="str" cm="1">
         <f t="array" ref="H7">INDEX(_xlfn.ANCHORARRAY(D7),B7)</f>
         <v>3. 障害者権利条約</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3. 障害者権利条約。日本障害フォーラムは全日本ろうあ連盟などの13団体で構成されている。障害者施策の推進やイエローリボン運動などの啓発活動も行う。</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="5" t="str" cm="1">
+      <c r="D8" s="3" t="str" cm="1">
         <f t="array" ref="D8:G8">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A8),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. いつも同じ人が継続的なミーティングの中で語り合いをするカウンセリング</v>
       </c>
-      <c r="E8" s="5" t="str">
+      <c r="E8" s="3" t="str">
         <v>2. 夫婦の間の問題解決のために2人で受けるカウンセリング</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="3" t="str">
         <v>3. 同じ立場や障害を持っている人同士で行うカウンセリング</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="3" t="str">
         <v>4. 日頃悩んでいる家庭のこと・仕事のこと・病気のことなどについてメールで受けるカウンセリング</v>
       </c>
-      <c r="H8" s="5" t="str" cm="1">
+      <c r="H8" s="3" t="str" cm="1">
         <f t="array" ref="H8">INDEX(_xlfn.ANCHORARRAY(D8),B8)</f>
         <v>3. 同じ立場や障害を持っている人同士で行うカウンセリング</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3. 同じ立場や障害を持っている人同士で行うカウンセリング。さまざまな場面で自分自身で選択し決定する自立生活を目指す仲間を（ピア）を作り、お互いに平等な立場で話を聞きあってサポートすること</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="5" t="str" cm="1">
+      <c r="D9" s="3" t="str" cm="1">
         <f t="array" ref="D9:G9">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A9),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 総務省</v>
       </c>
-      <c r="E9" s="5" t="str">
+      <c r="E9" s="3" t="str">
         <v>2. 文部科学省</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="3" t="str">
         <v>3. 厚生労働省</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="3" t="str">
         <v>4. 国土交通省</v>
       </c>
-      <c r="H9" s="5" t="str" cm="1">
+      <c r="H9" s="3" t="str" cm="1">
         <f t="array" ref="H9">INDEX(_xlfn.ANCHORARRAY(D9),B9)</f>
         <v>3. 厚生労働省</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3. 厚生労働省。1973年に労働省（厚生労働省）が聴覚障害者の求職相談などのために手話協力員を設置した。</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="5" t="str" cm="1">
+      <c r="D10" s="3" t="str" cm="1">
         <f t="array" ref="D10:G10">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A10),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 出会い、触れあい、心の輪</v>
       </c>
-      <c r="E10" s="5" t="str">
+      <c r="E10" s="3" t="str">
         <v>2. 壁を取り払い、扉を開こう: すべての人々が参加できる社会のために</v>
       </c>
-      <c r="F10" s="5" t="str">
+      <c r="F10" s="3" t="str">
         <v>3. わたしたち抜きで私たちのことを決めるな</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="3" t="str">
         <v>4. 完全参加と平等</v>
       </c>
-      <c r="H10" s="5" t="str" cm="1">
+      <c r="H10" s="3" t="str" cm="1">
         <f t="array" ref="H10">INDEX(_xlfn.ANCHORARRAY(D10),B10)</f>
         <v>4. 完全参加と平等</v>
       </c>
-      <c r="I10" s="5" t="str">
+      <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4. 完全参加と平等。障害者が社会生活および社会への発展へ完全に参加できること、ほかの人々との平等な生活が営めること、経済的および社会的発展によって改善される生活状況を享受できることを目的とした。</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="5" t="str" cm="1">
+      <c r="D11" s="3" t="str" cm="1">
         <f t="array" ref="D11:G11">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A11),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 高次脳機能障害</v>
       </c>
-      <c r="E11" s="5" t="str">
+      <c r="E11" s="3" t="str">
         <v>2. 頸肩腕障害</v>
       </c>
-      <c r="F11" s="5" t="str">
+      <c r="F11" s="3" t="str">
         <v>3. 言語障害</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="3" t="str">
         <v>4. 肝機能障害</v>
       </c>
-      <c r="H11" s="5" t="str" cm="1">
+      <c r="H11" s="3" t="str" cm="1">
         <f t="array" ref="H11">INDEX(_xlfn.ANCHORARRAY(D11),B11)</f>
         <v>2. 頸肩腕障害</v>
       </c>
-      <c r="I11" s="5" t="str">
+      <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2. 頸肩腕障害。上腕から前腕にかけて疲労感や脱力感・痛みなどが起き、重なることで慢性的なだるさや食用低下などが現れる状態</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="5" t="str" cm="1">
+      <c r="D12" s="3" t="str" cm="1">
         <f t="array" ref="D12:G12">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A12),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. デフリンピック</v>
       </c>
-      <c r="E12" s="5" t="str">
+      <c r="E12" s="3" t="str">
         <v>2. パラリンピック</v>
       </c>
-      <c r="F12" s="5" t="str">
+      <c r="F12" s="3" t="str">
         <v>3. オリンピック</v>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G12" s="3" t="str">
         <v>4. アビリンピック</v>
       </c>
-      <c r="H12" s="5" t="str" cm="1">
+      <c r="H12" s="3" t="str" cm="1">
         <f t="array" ref="H12">INDEX(_xlfn.ANCHORARRAY(D12),B12)</f>
         <v>1. デフリンピック</v>
       </c>
-      <c r="I12" s="5" t="str">
+      <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1. デフリンピック。聞こえないことをデフという。ろう者のオリンピックという意味合いでデフリンピックという。</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="5" t="str" cm="1">
+      <c r="D13" s="3" t="str" cm="1">
         <f t="array" ref="D13:G13">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A13),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 北海道</v>
       </c>
-      <c r="E13" s="5" t="str">
+      <c r="E13" s="3" t="str">
         <v>2. 神奈川県</v>
       </c>
-      <c r="F13" s="5" t="str">
+      <c r="F13" s="3" t="str">
         <v>3. 鳥取県</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="3" t="str">
         <v>4. 福岡県</v>
       </c>
-      <c r="H13" s="5" t="str" cm="1">
+      <c r="H13" s="3" t="str" cm="1">
         <f t="array" ref="H13">INDEX(_xlfn.ANCHORARRAY(D13),B13)</f>
         <v>3. 鳥取県</v>
       </c>
-      <c r="I13" s="5" t="str">
+      <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3. 鳥取県。2013年に鳥取県で制定され、全国の自治体へと波及して2024年時点では38都道府県21区357市110町6村、計532自治体で制定された。</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D14" s="5" t="str" cm="1">
+      <c r="D14" s="3" t="str" cm="1">
         <f t="array" ref="D14:G14">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A14),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 聴覚言語障害センター</v>
       </c>
-      <c r="E14" s="5" t="str">
+      <c r="E14" s="3" t="str">
         <v>2. 聴覚障害者情報センター</v>
       </c>
-      <c r="F14" s="5" t="str">
+      <c r="F14" s="3" t="str">
         <v>3. 聴覚障害者情報提供施設</v>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="3" t="str">
         <v>4. 聴覚障害者手話通訳派遣センター</v>
       </c>
-      <c r="H14" s="5" t="str" cm="1">
+      <c r="H14" s="3" t="str" cm="1">
         <f t="array" ref="H14">INDEX(_xlfn.ANCHORARRAY(D14),B14)</f>
         <v>3. 聴覚障害者情報提供施設</v>
       </c>
-      <c r="I14" s="5" t="str">
+      <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3. 聴覚障害者情報提供施設。1990年に身体障害者福祉法が改正されて、聴覚障害者情報提供施設を設置することができると定められた。</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D15" s="5" t="str" cm="1">
+      <c r="D15" s="3" t="str" cm="1">
         <f t="array" ref="D15:G15">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A15),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 人権週間</v>
       </c>
-      <c r="E15" s="5" t="str">
+      <c r="E15" s="3" t="str">
         <v>2. 教育週間</v>
       </c>
-      <c r="F15" s="5" t="str">
+      <c r="F15" s="3" t="str">
         <v>3. 福祉週間</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="3" t="str">
         <v>4. 障害者週間</v>
       </c>
-      <c r="H15" s="5" t="str" cm="1">
+      <c r="H15" s="3" t="str" cm="1">
         <f t="array" ref="H15">INDEX(_xlfn.ANCHORARRAY(D15),B15)</f>
         <v>4. 障害者週間</v>
       </c>
-      <c r="I15" s="5" t="str">
+      <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4. 障害者週間。2004年6月に障害者基本法が改正されて12月9日を障害者の日と定めていたものを12月3日～9日を障害者週間と定めた。</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D16" s="5" t="str" cm="1">
+      <c r="D16" s="3" t="str" cm="1">
         <f t="array" ref="D16:G16">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A16),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 義務雇用率</v>
       </c>
-      <c r="E16" s="5" t="str">
+      <c r="E16" s="3" t="str">
         <v>2. 法定雇用率</v>
       </c>
-      <c r="F16" s="5" t="str">
+      <c r="F16" s="3" t="str">
         <v>3. 目標雇用率</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="3" t="str">
         <v>4. 最低雇用率</v>
       </c>
-      <c r="H16" s="5" t="str" cm="1">
+      <c r="H16" s="3" t="str" cm="1">
         <f t="array" ref="H16">INDEX(_xlfn.ANCHORARRAY(D16),B16)</f>
         <v>2. 法定雇用率</v>
       </c>
-      <c r="I16" s="5" t="str">
+      <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2. 法定雇用率。障害者雇用促進法は障害者の職業安定を図ることを目的とする法律。職業リハビリテーションの促進や障害に対する差別の禁止などが規定される。</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D17" s="5" t="str" cm="1">
+      <c r="D17" s="3" t="str" cm="1">
         <f t="array" ref="D17:G17">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A17),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 手話の語彙の一部になることがある</v>
       </c>
-      <c r="E17" s="5" t="str">
+      <c r="E17" s="3" t="str">
         <v>2. 主にカタカナで書かれる言葉について表現するためのものである</v>
       </c>
-      <c r="F17" s="5" t="str">
+      <c r="F17" s="3" t="str">
         <v>3. 指文字は年々改良されている</v>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G17" s="3" t="str">
         <v>4. 五十音に対応しているが、「が」などの濁音は表現できない</v>
       </c>
-      <c r="H17" s="5" t="str" cm="1">
+      <c r="H17" s="3" t="str" cm="1">
         <f t="array" ref="H17">INDEX(_xlfn.ANCHORARRAY(D17),B17)</f>
         <v>1. 手話の語彙の一部になることがある</v>
       </c>
-      <c r="I17" s="5" t="str">
+      <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1. 手話の語彙の一部になることがある。指文字を表現の一部にする手話単語もたくさんあります。施設の手話は指文字のシを用います。</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="5" t="str" cm="1">
+      <c r="D18" s="3" t="str" cm="1">
         <f t="array" ref="D18:G18">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A18),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 経済と商売</v>
       </c>
-      <c r="E18" s="5" t="str">
+      <c r="E18" s="3" t="str">
         <v>2. 遊びと会社</v>
       </c>
-      <c r="F18" s="5" t="str">
+      <c r="F18" s="3" t="str">
         <v>3. 姉と弟</v>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G18" s="3" t="str">
         <v>4. 考えると私</v>
       </c>
-      <c r="H18" s="5" t="str" cm="1">
+      <c r="H18" s="3" t="str" cm="1">
         <f t="array" ref="H18">INDEX(_xlfn.ANCHORARRAY(D18),B18)</f>
         <v>1. 経済と商売</v>
       </c>
-      <c r="I18" s="5" t="str">
+      <c r="I18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1. 経済と商売。全日本ろうあ連盟発行「わたしたちの手話 学習辞典1」などを参照。</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="5" t="str" cm="1">
+      <c r="D19" s="3" t="str" cm="1">
         <f t="array" ref="D19:G19">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A19),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 香川</v>
       </c>
-      <c r="E19" s="5" t="str">
+      <c r="E19" s="3" t="str">
         <v>2. 広島</v>
       </c>
-      <c r="F19" s="5" t="str">
+      <c r="F19" s="3" t="str">
         <v>3. 長野</v>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G19" s="3" t="str">
         <v>4. 秋田</v>
       </c>
-      <c r="H19" s="5" t="str" cm="1">
+      <c r="H19" s="3" t="str" cm="1">
         <f t="array" ref="H19">INDEX(_xlfn.ANCHORARRAY(D19),B19)</f>
         <v>2. 広島</v>
       </c>
-      <c r="I19" s="5" t="str">
+      <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2. 広島。広島の手話は宮島にある厳島神社の鳥居の形から作られています。</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D20" s="5" t="str" cm="1">
+      <c r="D20" s="3" t="str" cm="1">
         <f t="array" ref="D20:G20">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A20),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 気温</v>
       </c>
-      <c r="E20" s="5" t="str">
+      <c r="E20" s="3" t="str">
         <v>2. プライバシー</v>
       </c>
-      <c r="F20" s="5" t="str">
+      <c r="F20" s="3" t="str">
         <v>3. オーバー</v>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="G20" s="3" t="str">
         <v>4. 詳細</v>
       </c>
-      <c r="H20" s="5" t="str" cm="1">
+      <c r="H20" s="3" t="str" cm="1">
         <f t="array" ref="H20">INDEX(_xlfn.ANCHORARRAY(D20),B20)</f>
         <v>2. プライバシー</v>
       </c>
-      <c r="I20" s="5" t="str">
+      <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2. プライバシー。全日本ろうあ連盟発行「わたしたちの手話 学習辞典1」などを参照。</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="5" t="str" cm="1">
+      <c r="D21" s="3" t="str" cm="1">
         <f t="array" ref="D21:G21">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A21),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 生きる</v>
       </c>
-      <c r="E21" s="5" t="str">
+      <c r="E21" s="3" t="str">
         <v>2. 訓練</v>
       </c>
-      <c r="F21" s="5" t="str">
+      <c r="F21" s="3" t="str">
         <v>3. 基準</v>
       </c>
-      <c r="G21" s="5" t="str">
+      <c r="G21" s="3" t="str">
         <v>4. 材料</v>
       </c>
-      <c r="H21" s="5" t="str" cm="1">
+      <c r="H21" s="3" t="str" cm="1">
         <f t="array" ref="H21">INDEX(_xlfn.ANCHORARRAY(D21),B21)</f>
         <v>3. 基準</v>
       </c>
-      <c r="I21" s="5" t="str">
+      <c r="I21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3. 基準。【基準】以外はすべて両手こぶしを使った手話表現です。</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>4</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="5" t="str" cm="1">
+      <c r="D22" s="3" t="str" cm="1">
         <f t="array" ref="D22:G22">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A22),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 災害</v>
       </c>
-      <c r="E22" s="5" t="str">
+      <c r="E22" s="3" t="str">
         <v>2. 非</v>
       </c>
-      <c r="F22" s="5" t="str">
+      <c r="F22" s="3" t="str">
         <v>3. 北陸</v>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G22" s="3" t="str">
         <v>4. 虹</v>
       </c>
-      <c r="H22" s="5" t="str" cm="1">
+      <c r="H22" s="3" t="str" cm="1">
         <f t="array" ref="H22">INDEX(_xlfn.ANCHORARRAY(D22),B22)</f>
         <v>4. 虹</v>
       </c>
-      <c r="I22" s="5" t="str">
+      <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>4. 虹。【虹】の手話は事象そのものから成り立っています。ちなみに虹を七色と認識しているのは日本の特徴のようです。</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="5" t="str" cm="1">
+      <c r="D23" s="3" t="str" cm="1">
         <f t="array" ref="D23:G23">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A23),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 音の大きさ</v>
       </c>
-      <c r="E23" s="5" t="str">
+      <c r="E23" s="3" t="str">
         <v>2. 音の長さ</v>
       </c>
-      <c r="F23" s="5" t="str">
+      <c r="F23" s="3" t="str">
         <v>3. 音の高さ</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="3" t="str">
         <v>4. 音色</v>
       </c>
-      <c r="H23" s="5" t="str" cm="1">
+      <c r="H23" s="3" t="str" cm="1">
         <f t="array" ref="H23">INDEX(_xlfn.ANCHORARRAY(D23),B23)</f>
         <v>2. 音の長さ</v>
       </c>
-      <c r="I23" s="5" t="str">
+      <c r="I23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2. 音の長さ。音の三要素は「音の高さ」「音の大きさ」「音色」の３つからなります。</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D24" s="5" t="str" cm="1">
+      <c r="D24" s="3" t="str" cm="1">
         <f t="array" ref="D24:G24">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A24),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 障害者基本法</v>
       </c>
-      <c r="E24" s="5" t="str">
+      <c r="E24" s="3" t="str">
         <v>2. 障害者差別解消法</v>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" s="3" t="str">
         <v>3. 障害者総合支援法</v>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G24" s="3" t="str">
         <v>4. 障害者自立支援法</v>
       </c>
-      <c r="H24" s="5" t="str" cm="1">
+      <c r="H24" s="3" t="str" cm="1">
         <f t="array" ref="H24">INDEX(_xlfn.ANCHORARRAY(D24),B24)</f>
         <v>1. 障害者基本法</v>
       </c>
-      <c r="I24" s="5" t="str">
+      <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1. 障害者基本法。2011年の障害者基本法改正で第3条第11項第3号に規定されたことによって言語性が認められたといわれています。</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D25" s="5" t="str" cm="1">
+      <c r="D25" s="3" t="str" cm="1">
         <f t="array" ref="D25:G25">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A25),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 目で見るテレビ</v>
       </c>
-      <c r="E25" s="5" t="str">
+      <c r="E25" s="3" t="str">
         <v>2. 目で聴くテレビ</v>
       </c>
-      <c r="F25" s="5" t="str">
+      <c r="F25" s="3" t="str">
         <v>3. 耳で見るテレビ</v>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="G25" s="3" t="str">
         <v>4. 耳で聴くテレビ</v>
       </c>
-      <c r="H25" s="5" t="str" cm="1">
+      <c r="H25" s="3" t="str" cm="1">
         <f t="array" ref="H25">INDEX(_xlfn.ANCHORARRAY(D25),B25)</f>
         <v>2. 目で聴くテレビ</v>
       </c>
-      <c r="I25" s="5" t="str">
+      <c r="I25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>2. 目で聴くテレビ。1995年の阪神淡路大震災の反省を踏まえて1998年から手話と字幕を付けた目で聴くテレビがスタートしました。</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D26" s="5" t="str" cm="1">
+      <c r="D26" s="3" t="str" cm="1">
         <f t="array" ref="D26:G26">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,A26),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. バリアフリー</v>
       </c>
-      <c r="E26" s="5" t="str">
+      <c r="E26" s="3" t="str">
         <v>2. 社会モデル</v>
       </c>
-      <c r="F26" s="5" t="str">
+      <c r="F26" s="3" t="str">
         <v>3. インクルージョン</v>
       </c>
-      <c r="G26" s="5" t="str">
+      <c r="G26" s="3" t="str">
         <v>4. リハビリテーション</v>
       </c>
-      <c r="H26" s="5" t="str" cm="1">
+      <c r="H26" s="3" t="str" cm="1">
         <f t="array" ref="H26">INDEX(_xlfn.ANCHORARRAY(D26),B26)</f>
         <v>1. バリアフリー</v>
       </c>
-      <c r="I26" s="5" t="str">
+      <c r="I26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>1. バリアフリー。バリアフリーは高齢者や障害者等が生活する上での障壁（バリア）を除去（フリー）することです。社会モデルは高齢者や障害者等が生活するうえで障壁となっているものは社会にあるという考え方です。</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>275</v>
       </c>
     </row>
@@ -15144,486 +15263,486 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="72.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="52.875" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="72.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="157.5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="5" t="str" cm="1">
+      <c r="E2" s="3" t="str" cm="1">
         <f t="array" ref="E2:N2">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,B2),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 中耳</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="3" t="str">
         <v>2. 内耳</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="3" t="str">
         <v>3. 外耳</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="3" t="str">
         <v>4. 補聴器</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="3" t="str">
         <v>5. 集音器</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="3" t="str">
         <v>6. 低い</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K2" s="3" t="str">
         <v>7. 高い</v>
       </c>
-      <c r="L2" s="5" t="str">
+      <c r="L2" s="3" t="str">
         <v>8. 伝音声</v>
       </c>
-      <c r="M2" s="5" t="str">
+      <c r="M2" s="3" t="str">
         <v>9. 感音性</v>
       </c>
-      <c r="N2" s="5" t="str">
+      <c r="N2" s="3" t="str">
         <v>10. 突発性</v>
       </c>
-      <c r="O2" s="5" t="str" cm="1">
+      <c r="O2" s="3" t="str" cm="1">
         <f t="array" ref="O2:R2">_xlfn.LET(_xlpm.sp,",",_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,C2),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>8</v>
       </c>
-      <c r="P2" s="5" t="str">
+      <c r="P2" s="3" t="str">
         <v>2</v>
       </c>
-      <c r="Q2" s="5" t="str">
+      <c r="Q2" s="3" t="str">
         <v>4</v>
       </c>
-      <c r="R2" s="5" t="str">
+      <c r="R2" s="3" t="str">
         <v>7</v>
       </c>
-      <c r="S2" s="5" t="str" cm="1">
+      <c r="S2" s="3" t="str" cm="1">
         <f t="array" ref="S2">"(ア): "&amp;INDEX(_xlfn.ANCHORARRAY(E2),O2)&amp;" (イ): "&amp;INDEX(_xlfn.ANCHORARRAY(E2),P2)&amp;" (ウ): "&amp;INDEX(_xlfn.ANCHORARRAY(E2),Q2)&amp;" (エ): "&amp;INDEX(_xlfn.ANCHORARRAY(E2),R2)</f>
         <v>(ア): 8. 伝音声 (イ): 2. 内耳 (ウ): 4. 補聴器 (エ): 7. 高い</v>
       </c>
-      <c r="T2" s="5" t="str">
+      <c r="T2" s="3" t="str">
         <f>S2&amp;"。"&amp;D2</f>
         <v>(ア): 8. 伝音声 (イ): 2. 内耳 (ウ): 4. 補聴器 (エ): 7. 高い。伝音性難聴は空気の振動としての音を内耳に伝える外耳道、鼓膜、耳小骨の部分に障害があるため、振動が伝わりに肉なって音が小さく聞こえる障害です。</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="126">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="5" t="str" cm="1">
+      <c r="E3" s="3" t="str" cm="1">
         <f t="array" ref="E3:L3">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,B3),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 盲唖院</v>
       </c>
-      <c r="F3" s="5" t="str">
+      <c r="F3" s="3" t="str">
         <v>2. ろうあ協会</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="3" t="str">
         <v>3. 歴史</v>
       </c>
-      <c r="H3" s="5" t="str">
+      <c r="H3" s="3" t="str">
         <v>4. 手話サークル</v>
       </c>
-      <c r="I3" s="5" t="str">
+      <c r="I3" s="3" t="str">
         <v>5. 平等</v>
       </c>
-      <c r="J3" s="5" t="str">
+      <c r="J3" s="3" t="str">
         <v>6. 教育</v>
       </c>
-      <c r="K3" s="5" t="str">
+      <c r="K3" s="3" t="str">
         <v>7. 差別</v>
       </c>
-      <c r="L3" s="5" t="str">
+      <c r="L3" s="3" t="str">
         <v>8. 自然</v>
       </c>
-      <c r="O3" s="5" t="str" cm="1">
+      <c r="O3" s="3" t="str" cm="1">
         <f t="array" ref="O3:Q3">_xlfn.LET(_xlpm.sp,",",_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,C3),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1</v>
       </c>
-      <c r="P3" s="5" t="str">
+      <c r="P3" s="3" t="str">
         <v>6</v>
       </c>
-      <c r="Q3" s="5" t="str">
+      <c r="Q3" s="3" t="str">
         <v>7</v>
       </c>
-      <c r="S3" s="5" t="str" cm="1">
+      <c r="S3" s="3" t="str" cm="1">
         <f t="array" ref="S3">"(ア): "&amp;INDEX(_xlfn.ANCHORARRAY(E3),O3)&amp;" (イ): "&amp;INDEX(_xlfn.ANCHORARRAY(E3),P3)&amp;" (ウ): "&amp;INDEX(_xlfn.ANCHORARRAY(E3),Q3)</f>
         <v>(ア): 1. 盲唖院 (イ): 6. 教育 (ウ): 7. 差別</v>
       </c>
-      <c r="T3" s="5" t="str">
+      <c r="T3" s="3" t="str">
         <f t="shared" ref="T3:T9" si="0">S3&amp;"。"&amp;D3</f>
         <v>(ア): 1. 盲唖院 (イ): 6. 教育 (ウ): 7. 差別。日本最初の聾学校として1878年に京都盲唖院、1880年には東京に訓盲院が設立され、教育の場で手話が取り入れられました。</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="126">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E4" s="5" t="str" cm="1">
+      <c r="E4" s="3" t="str" cm="1">
         <f t="array" ref="E4:L4">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,B4),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 仕事</v>
       </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="3" t="str">
         <v>2. 集会</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="3" t="str">
         <v>3. 活動</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="3" t="str">
         <v>4. 円滑な</v>
       </c>
-      <c r="I4" s="5" t="str">
+      <c r="I4" s="3" t="str">
         <v>5. 一定の</v>
       </c>
-      <c r="J4" s="5" t="str">
+      <c r="J4" s="3" t="str">
         <v>6. お互いの</v>
       </c>
-      <c r="K4" s="5" t="str">
+      <c r="K4" s="3" t="str">
         <v>7. 共存社会</v>
       </c>
-      <c r="L4" s="5" t="str">
+      <c r="L4" s="3" t="str">
         <v>8. 共生社会</v>
       </c>
-      <c r="O4" s="5" t="str" cm="1">
+      <c r="O4" s="3" t="str" cm="1">
         <f t="array" ref="O4:Q4">_xlfn.LET(_xlpm.sp,",",_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,C4),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>3</v>
       </c>
-      <c r="P4" s="5" t="str">
+      <c r="P4" s="3" t="str">
         <v>4</v>
       </c>
-      <c r="Q4" s="5" t="str">
+      <c r="Q4" s="3" t="str">
         <v>8</v>
       </c>
-      <c r="S4" s="5" t="str" cm="1">
+      <c r="S4" s="3" t="str" cm="1">
         <f t="array" ref="S4">"(ア): "&amp;INDEX(_xlfn.ANCHORARRAY(E4),O4)&amp;" (イ): "&amp;INDEX(_xlfn.ANCHORARRAY(E4),P4)&amp;" (ウ): "&amp;INDEX(_xlfn.ANCHORARRAY(E4),Q4)</f>
         <v>(ア): 3. 活動 (イ): 4. 円滑な (ウ): 8. 共生社会</v>
       </c>
-      <c r="T4" s="5" t="str">
+      <c r="T4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>(ア): 3. 活動 (イ): 4. 円滑な (ウ): 8. 共生社会。この法律の目的は「すべての障害者があらゆる分野の活動に参加するためにはその必要とする情報の十分な取得利用・円滑な意思疎通が極めて重要であり、障害者による情報の取得利用・意思疎通にかかる施策を総合的に推進し、共生社会の実現に資する」こととされています。</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="126">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="5" t="str" cm="1">
+      <c r="E5" s="3" t="str" cm="1">
         <f t="array" ref="E5:L5">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,B5),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 手話の位置</v>
       </c>
-      <c r="F5" s="5" t="str">
+      <c r="F5" s="3" t="str">
         <v>2. 手指の動き</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="3" t="str">
         <v>3. 語順</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="3" t="str">
         <v>4. 趣旨の形</v>
       </c>
-      <c r="I5" s="5" t="str">
+      <c r="I5" s="3" t="str">
         <v>5. 頭の動き</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" s="3" t="str">
         <v>6. 顔の表情</v>
       </c>
-      <c r="K5" s="5" t="str">
+      <c r="K5" s="3" t="str">
         <v>7. 体の向き</v>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="L5" s="3" t="str">
         <v>8. 手のひらの向き</v>
       </c>
-      <c r="O5" s="5" t="str" cm="1">
+      <c r="O5" s="3" t="str" cm="1">
         <f t="array" ref="O5:Q5">_xlfn.LET(_xlpm.sp,",",_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,C5),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>8</v>
       </c>
-      <c r="P5" s="5" t="str">
+      <c r="P5" s="3" t="str">
         <v>1</v>
       </c>
-      <c r="Q5" s="5" t="str">
+      <c r="Q5" s="3" t="str">
         <v>2</v>
       </c>
-      <c r="S5" s="5" t="str" cm="1">
+      <c r="S5" s="3" t="str" cm="1">
         <f t="array" ref="S5">"(ア): "&amp;INDEX(_xlfn.ANCHORARRAY(E5),O5)&amp;" (イ): "&amp;INDEX(_xlfn.ANCHORARRAY(E5),P5)&amp;" (ウ): "&amp;INDEX(_xlfn.ANCHORARRAY(E5),Q5)</f>
         <v>(ア): 8. 手のひらの向き (イ): 1. 手話の位置 (ウ): 2. 手指の動き</v>
       </c>
-      <c r="T5" s="5" t="str">
+      <c r="T5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>(ア): 8. 手のひらの向き (イ): 1. 手話の位置 (ウ): 2. 手指の動き。全日本ろうあ連盟発行「わたしたちの手話 学習辞典1」などを参照。</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="126">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E6" s="5" t="str" cm="1">
+      <c r="E6" s="3" t="str" cm="1">
         <f t="array" ref="E6:L6">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,B6),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 全国手話研修センター</v>
       </c>
-      <c r="F6" s="5" t="str">
+      <c r="F6" s="3" t="str">
         <v>2. 全国手話通訳問題研究会</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="3" t="str">
         <v>3. 全日本ろうあ連盟</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="3" t="str">
         <v>4. イラスト</v>
       </c>
-      <c r="I6" s="5" t="str">
+      <c r="I6" s="3" t="str">
         <v>5. 文章</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" s="3" t="str">
         <v>6. 日本語対応手話</v>
       </c>
-      <c r="K6" s="5" t="str">
+      <c r="K6" s="3" t="str">
         <v>7. 映像</v>
       </c>
-      <c r="L6" s="5" t="str">
+      <c r="L6" s="3" t="str">
         <v>8. 標準手話</v>
       </c>
-      <c r="O6" s="5" t="str" cm="1">
+      <c r="O6" s="3" t="str" cm="1">
         <f t="array" ref="O6:Q6">_xlfn.LET(_xlpm.sp,",",_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,C6),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>3</v>
       </c>
-      <c r="P6" s="5" t="str">
+      <c r="P6" s="3" t="str">
         <v>4</v>
       </c>
-      <c r="Q6" s="5" t="str">
+      <c r="Q6" s="3" t="str">
         <v>8</v>
       </c>
-      <c r="S6" s="5" t="str" cm="1">
+      <c r="S6" s="3" t="str" cm="1">
         <f t="array" ref="S6">"(ア): "&amp;INDEX(_xlfn.ANCHORARRAY(E6),O6)&amp;" (イ): "&amp;INDEX(_xlfn.ANCHORARRAY(E6),P6)&amp;" (ウ): "&amp;INDEX(_xlfn.ANCHORARRAY(E6),Q6)</f>
         <v>(ア): 3. 全日本ろうあ連盟 (イ): 4. イラスト (ウ): 8. 標準手話</v>
       </c>
-      <c r="T6" s="5" t="str">
+      <c r="T6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>(ア): 3. 全日本ろうあ連盟 (イ): 4. イラスト (ウ): 8. 標準手話。標準手話の全国的な普及と手話サークルの発展に貢献し、日本手話研究所設立への流れを作りました。</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="126">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E7" s="5" t="str" cm="1">
+      <c r="E7" s="3" t="str" cm="1">
         <f t="array" ref="E7:L7">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,B7),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 障害者年金手帳</v>
       </c>
-      <c r="F7" s="5" t="str">
+      <c r="F7" s="3" t="str">
         <v>2. 身体障害者手帳</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="3" t="str">
         <v>3. 厚生年金手帳</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="3" t="str">
         <v>4. 筆談ボード</v>
       </c>
-      <c r="I7" s="5" t="str">
+      <c r="I7" s="3" t="str">
         <v>5. 補聴器</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" s="3" t="str">
         <v>6. 携帯電話</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="K7" s="3" t="str">
         <v>7. 40デシベル</v>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="L7" s="3" t="str">
         <v>8. 70デシベル</v>
       </c>
-      <c r="O7" s="5" t="str" cm="1">
+      <c r="O7" s="3" t="str" cm="1">
         <f t="array" ref="O7:Q7">_xlfn.LET(_xlpm.sp,",",_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,C7),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>2</v>
       </c>
-      <c r="P7" s="5" t="str">
+      <c r="P7" s="3" t="str">
         <v>5</v>
       </c>
-      <c r="Q7" s="5" t="str">
+      <c r="Q7" s="3" t="str">
         <v>8</v>
       </c>
-      <c r="S7" s="5" t="str" cm="1">
+      <c r="S7" s="3" t="str" cm="1">
         <f t="array" ref="S7">"(ア): "&amp;INDEX(_xlfn.ANCHORARRAY(E7),O7)&amp;" (イ): "&amp;INDEX(_xlfn.ANCHORARRAY(E7),P7)&amp;" (ウ): "&amp;INDEX(_xlfn.ANCHORARRAY(E7),Q7)</f>
         <v>(ア): 2. 身体障害者手帳 (イ): 5. 補聴器 (ウ): 8. 70デシベル</v>
       </c>
-      <c r="T7" s="5" t="str">
+      <c r="T7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>(ア): 2. 身体障害者手帳 (イ): 5. 補聴器 (ウ): 8. 70デシベル。現在、軽度・中度難聴者に対する補聴器購入費助成に取り組む自治体は増えていますが、少ない状況です。対象年齢が全年齢・65歳以上、18歳以上など自治体によってばらばらです。</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="126">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="5" t="str" cm="1">
+      <c r="E8" s="3" t="str" cm="1">
         <f t="array" ref="E8:L8">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,B8),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 頭脳</v>
       </c>
-      <c r="F8" s="5" t="str">
+      <c r="F8" s="3" t="str">
         <v>2. ことば</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="3" t="str">
         <v>3. 声の調子</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="3" t="str">
         <v>4. 指文字</v>
       </c>
-      <c r="I8" s="5" t="str">
+      <c r="I8" s="3" t="str">
         <v>5. 言語コミュニケーション</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" s="3" t="str">
         <v>6. 非言語コミュニケーション</v>
       </c>
-      <c r="K8" s="5" t="str">
+      <c r="K8" s="3" t="str">
         <v>7. 文字</v>
       </c>
-      <c r="L8" s="5" t="str">
+      <c r="L8" s="3" t="str">
         <v>8. メール</v>
       </c>
-      <c r="O8" s="5" t="str" cm="1">
+      <c r="O8" s="3" t="str" cm="1">
         <f t="array" ref="O8:Q8">_xlfn.LET(_xlpm.sp,",",_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,C8),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>2</v>
       </c>
-      <c r="P8" s="5" t="str">
+      <c r="P8" s="3" t="str">
         <v>6</v>
       </c>
-      <c r="Q8" s="5" t="str">
+      <c r="Q8" s="3" t="str">
         <v>3</v>
       </c>
-      <c r="S8" s="5" t="str" cm="1">
+      <c r="S8" s="3" t="str" cm="1">
         <f t="array" ref="S8">"(ア): "&amp;INDEX(_xlfn.ANCHORARRAY(E8),O8)&amp;" (イ): "&amp;INDEX(_xlfn.ANCHORARRAY(E8),P8)&amp;" (ウ): "&amp;INDEX(_xlfn.ANCHORARRAY(E8),Q8)</f>
         <v>(ア): 2. ことば (イ): 6. 非言語コミュニケーション (ウ): 3. 声の調子</v>
       </c>
-      <c r="T8" s="5" t="str">
+      <c r="T8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>(ア): 2. ことば (イ): 6. 非言語コミュニケーション (ウ): 3. 声の調子。言葉以外の手段を使って伝える非言語コミュニケーションをうまく使うことで相手により分かりやすく伝えることもあります。</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="126">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E9" s="5" t="str" cm="1">
+      <c r="E9" s="3" t="str" cm="1">
         <f t="array" ref="E9:L9">_xlfn.LET(_xlpm.sp,CHAR(10),_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,B9),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>1. 視覚化</v>
       </c>
-      <c r="F9" s="5" t="str">
+      <c r="F9" s="3" t="str">
         <v>2. 視覚</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="3" t="str">
         <v>3. 聴覚</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="3" t="str">
         <v>4. 標準化</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="3" t="str">
         <v>5. 方言</v>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="J9" s="3" t="str">
         <v>6. 概念</v>
       </c>
-      <c r="K9" s="5" t="str">
+      <c r="K9" s="3" t="str">
         <v>7. 筆談</v>
       </c>
-      <c r="L9" s="5" t="str">
+      <c r="L9" s="3" t="str">
         <v>8. 手話</v>
       </c>
-      <c r="O9" s="5" t="str" cm="1">
+      <c r="O9" s="3" t="str" cm="1">
         <f t="array" ref="O9:Q9">_xlfn.LET(_xlpm.sp,",",_xlpm.txt,_xlfn.TEXTJOIN(_xlpm.sp,TRUE,C9),_xlpm.pre_sp,_xlpm.sp&amp;_xlpm.txt,_xlpm.post_sp,_xlpm.txt&amp;_xlpm.sp,_xlpm.x,_xlfn._xlws.FILTER((MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp))),(MID(_xlpm.pre_sp,_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.pre_sp)))&gt;0,),_xlpm.y,_xlfn._xlws.FILTER((MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp))),(MID(_xlpm.post_sp,_xlfn.SEQUENCE(LEN(_xlpm.post_sp)),1)=_xlpm.sp)*(_xlfn.SEQUENCE(LEN(_xlpm.post_sp)))&gt;0,),TRANSPOSE(MID(_xlpm.txt,_xlpm.x,_xlpm.y-_xlpm.x)))</f>
         <v>8</v>
       </c>
-      <c r="P9" s="5" t="str">
+      <c r="P9" s="3" t="str">
         <v>3</v>
       </c>
-      <c r="Q9" s="5" t="str">
+      <c r="Q9" s="3" t="str">
         <v>1</v>
       </c>
-      <c r="S9" s="5" t="str" cm="1">
+      <c r="S9" s="3" t="str" cm="1">
         <f t="array" ref="S9">"(ア): "&amp;INDEX(_xlfn.ANCHORARRAY(E9),O9)&amp;" (イ): "&amp;INDEX(_xlfn.ANCHORARRAY(E9),P9)&amp;" (ウ): "&amp;INDEX(_xlfn.ANCHORARRAY(E9),Q9)</f>
         <v>(ア): 8. 手話 (イ): 3. 聴覚 (ウ): 1. 視覚化</v>
       </c>
-      <c r="T9" s="5" t="str">
+      <c r="T9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>(ア): 8. 手話 (イ): 3. 聴覚 (ウ): 1. 視覚化。ろう者は音声言語を視覚化した文字を見て理解できますが耳から入る情報で文字の理解を深めたりすることができないこともあり、文字は苦手だという方がいます。聴覚で知る情報を視覚化すれば聞こえない人・聞こえにくい人はもちろん、聞こえる人にも優しい社会になるでしょう。</v>
       </c>

--- a/excel/shuwa_exam_question_list_ver0.03.xlsx
+++ b/excel/shuwa_exam_question_list_ver0.03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\マイドライブ\かつおーず\011_Creation\WebSite\shuwa_exam_site\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972F0F4-657D-44E4-BFB6-67D49D362EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113FAEB2-AEBB-493C-BE75-4C257D000AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6833,46 +6833,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>1. すみませんと言って立ち去った
-2. すみませんと言って筆談してくれた
-3. すみませんと言って手話を作ってくれた
-4. すみませんと言って音声認識アプリを使ってくれた</t>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒツダン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シ;</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="72" eb="76">
-      <t>オンセイニンシキ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1. テレビ番組に字幕を付けてほしい
 2. 聴覚障害者のために番組を作ってほしい
 3. 聞こえる人と同じ情報保障が欲しい
@@ -8547,6 +8507,46 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. すみませんと言って立ち去った
+2. すみませんと言って筆談してくれた
+3. すみませんと言って手話を使ってくれた
+4. すみませんと言って音声認識アプリを使ってくれた</t>
+    <rPh sb="9" eb="10">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツダン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シ;</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="72" eb="76">
+      <t>オンセイニンシキ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -8963,8 +8963,8 @@
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9011,7 +9011,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" ht="18.75">
@@ -11198,10 +11198,10 @@
         <v>2</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="63">
@@ -11232,10 +11232,10 @@
         <v>3</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="63">
@@ -11266,10 +11266,10 @@
         <v>3</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="63">
@@ -11300,10 +11300,10 @@
         <v>1</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="63">
@@ -11334,10 +11334,10 @@
         <v>3</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="63">
@@ -11368,10 +11368,10 @@
         <v>2</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="63">
@@ -11402,10 +11402,10 @@
         <v>4</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="63">
@@ -11436,10 +11436,10 @@
         <v>2</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="63">
@@ -11470,10 +11470,10 @@
         <v>1</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="63">
@@ -11498,16 +11498,16 @@
         <v>302</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H88" s="5">
         <v>1</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="63">
@@ -11538,10 +11538,10 @@
         <v>1</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="63">
@@ -11572,10 +11572,10 @@
         <v>2</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="63">
@@ -11606,10 +11606,10 @@
         <v>3</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="63">
@@ -11640,10 +11640,10 @@
         <v>4</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="63">
@@ -11674,10 +11674,10 @@
         <v>2</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="63">
@@ -11708,10 +11708,10 @@
         <v>1</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="63">
@@ -11742,10 +11742,10 @@
         <v>1</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="63">
@@ -11776,10 +11776,10 @@
         <v>2</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="63">
@@ -11810,10 +11810,10 @@
         <v>4</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="63">
@@ -11844,10 +11844,10 @@
         <v>1</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="63">
@@ -11878,10 +11878,10 @@
         <v>1</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="63">
@@ -11912,10 +11912,10 @@
         <v>4</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="63">
@@ -11946,10 +11946,10 @@
         <v>2</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="63">
@@ -11980,10 +11980,10 @@
         <v>4</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="63">
@@ -12014,10 +12014,10 @@
         <v>2</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="63">
@@ -12048,10 +12048,10 @@
         <v>4</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="63">
@@ -12082,10 +12082,10 @@
         <v>3</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="63">
@@ -12116,10 +12116,10 @@
         <v>2</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="63">
@@ -12150,10 +12150,10 @@
         <v>3</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="63">
@@ -12184,10 +12184,10 @@
         <v>1</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="63">
@@ -12218,10 +12218,10 @@
         <v>2</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="63">
@@ -12252,10 +12252,10 @@
         <v>1</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="63">
@@ -12286,7 +12286,7 @@
         <v>3</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J111" s="5"/>
     </row>
@@ -12318,7 +12318,7 @@
         <v>4</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J112" s="5"/>
     </row>
@@ -12350,10 +12350,10 @@
         <v>1</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="63">
@@ -12384,10 +12384,10 @@
         <v>2</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="63">
@@ -12418,10 +12418,10 @@
         <v>2</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="63">
@@ -12452,10 +12452,10 @@
         <v>1</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="63">
@@ -12486,10 +12486,10 @@
         <v>3</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="63">
@@ -12520,10 +12520,10 @@
         <v>4</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="63">
@@ -12554,10 +12554,10 @@
         <v>3</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="63">
@@ -12588,10 +12588,10 @@
         <v>4</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="63">
@@ -12616,16 +12616,16 @@
         <v>359</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H121" s="5">
         <v>3</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="63">
@@ -12656,7 +12656,7 @@
         <v>2</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J122" s="5"/>
     </row>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J123" s="5"/>
     </row>
@@ -12720,7 +12720,7 @@
         <v>4</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J124" s="5"/>
     </row>
@@ -12752,7 +12752,7 @@
         <v>4</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J125" s="5"/>
     </row>
@@ -12784,10 +12784,10 @@
         <v>2</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="78.75">
@@ -12818,10 +12818,10 @@
         <v>4</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="78.75">
@@ -12852,10 +12852,10 @@
         <v>2</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="78.75">
@@ -12886,10 +12886,10 @@
         <v>3</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="78.75">
@@ -12920,10 +12920,10 @@
         <v>1</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="78.75">
@@ -12954,10 +12954,10 @@
         <v>3</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="63">
@@ -12988,10 +12988,10 @@
         <v>1</v>
       </c>
       <c r="I132" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J132" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="63">
@@ -13013,19 +13013,19 @@
         <v>6</v>
       </c>
       <c r="F133" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="H133" s="5">
         <v>2</v>
       </c>
       <c r="I133" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J133" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="63">
@@ -13056,10 +13056,10 @@
         <v>4</v>
       </c>
       <c r="I134" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J134" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="110.25">
@@ -13090,10 +13090,10 @@
         <v>2</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="110.25">
@@ -13118,16 +13118,16 @@
         <v>385</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H136" s="5">
         <v>2</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="110.25">
@@ -13158,10 +13158,10 @@
         <v>3</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="126">
@@ -13186,16 +13186,16 @@
         <v>387</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H138" s="5">
         <v>1</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="126">
@@ -13226,10 +13226,10 @@
         <v>4</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="126">
@@ -13254,16 +13254,16 @@
         <v>389</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="H140" s="5">
         <v>3</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="94.5">
@@ -13288,16 +13288,16 @@
         <v>390</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H141" s="5">
         <v>3</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="94.5">
@@ -13322,16 +13322,16 @@
         <v>391</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H142" s="5">
         <v>2</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="94.5">
@@ -13353,19 +13353,19 @@
         <v>9</v>
       </c>
       <c r="F143" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H143" s="5">
         <v>3</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
